--- a/occupations.xlsx
+++ b/occupations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\Projects\occupational-bias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684DDA4-68A2-4C22-BE89-3066767C41DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E260D-8347-4FEA-A157-AFC931CB1038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="occupations" sheetId="1" r:id="rId1"/>
@@ -774,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -796,20 +796,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -881,6 +872,14 @@
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -906,23 +905,23 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{251A4E38-76BB-451A-BA7D-3427A9C0D56D}" name="#" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{A874A889-7532-45D4-B042-5A57A6832C05}" name="r" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{251A4E38-76BB-451A-BA7D-3427A9C0D56D}" name="#" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{A874A889-7532-45D4-B042-5A57A6832C05}" name="r" dataDxfId="14">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A494C8E6-F914-428C-8272-43E167056E6E}" name="zh" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B6C225BB-012E-4E5D-8791-79BFB3F1F024}" name="att_zh" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{29B59C04-5351-478E-936E-4FF56FD3C386}" name="en" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{1B4C41A2-3CB1-4152-B81F-485D7760D63F}" name="hu" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{B3E6153A-FA67-4701-B55F-729757CDEB41}" name="att_hu" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{5D26EFD2-BF07-4806-8FBB-9F219CC0741B}" name="chatgpt_hu" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{4A32F8C1-359D-4C9E-8195-02A92870A71F}" name="copilot_hu" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{F1FF7BC1-AC09-41A0-800C-522EDB48326B}" name="deepseek_hu" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{F30252C1-B7F3-463E-8FA4-511299C5F348}" name="gemini_hu" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{9ABFFE5E-A61F-4A56-9BD3-5CB3EAEDAC22}" name="chatgpt_zh" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{18983B9A-B075-414F-8D87-3F5A25C293D4}" name="copilot_zh" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{A39B0E6C-C60A-405D-9049-F1F4B921C73F}" name="deepseek_zh" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{09D3EAFF-C9B4-4CCD-803F-7FC1828A805E}" name="gemini_zh" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A494C8E6-F914-428C-8272-43E167056E6E}" name="zh" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B6C225BB-012E-4E5D-8791-79BFB3F1F024}" name="att_zh" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{29B59C04-5351-478E-936E-4FF56FD3C386}" name="en" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1B4C41A2-3CB1-4152-B81F-485D7760D63F}" name="hu" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B3E6153A-FA67-4701-B55F-729757CDEB41}" name="att_hu" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5D26EFD2-BF07-4806-8FBB-9F219CC0741B}" name="chatgpt_hu" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{4A32F8C1-359D-4C9E-8195-02A92870A71F}" name="copilot_hu" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{F1FF7BC1-AC09-41A0-800C-522EDB48326B}" name="deepseek_hu" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{F30252C1-B7F3-463E-8FA4-511299C5F348}" name="gemini_hu" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{9ABFFE5E-A61F-4A56-9BD3-5CB3EAEDAC22}" name="chatgpt_zh" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{18983B9A-B075-414F-8D87-3F5A25C293D4}" name="copilot_zh" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{A39B0E6C-C60A-405D-9049-F1F4B921C73F}" name="deepseek_zh" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{09D3EAFF-C9B4-4CCD-803F-7FC1828A805E}" name="gemini_zh" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1252,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1324,12 +1323,12 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.81483953788434194</v>
+        <f t="shared" ref="B2:B33" ca="1" si="0">RAND()</f>
+        <v>0.21516348692670384</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1372,12 +1371,12 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.24661015145363996</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6905344311519569</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1420,12 +1419,12 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.89632874689073494</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59009469141601023</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1468,12 +1467,12 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.72996117370871361</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56904257073995679</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1516,12 +1515,12 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.81087400522747011</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69829660476535327</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1564,12 +1563,12 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.46501762558208581</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37261804578147217</v>
       </c>
       <c r="C7" t="s">
         <v>211</v>
@@ -1612,12 +1611,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.54565733612101674</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56503516018852062</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1660,12 +1659,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.72872568020349759</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12740307005404905</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1708,12 +1707,12 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.18224746993920371</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67252685985125304</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
@@ -1756,12 +1755,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <f ca="1">RAND()</f>
-        <v>5.4934754111250705E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71153546326595651</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1804,12 +1803,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.57372549388057859</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89956628271524852</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1852,12 +1851,12 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.93706332149895399</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38678356943459324</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1900,12 +1899,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.62758885518000862</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35483914115102388</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1948,12 +1947,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.77952437779878003</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53493189938544461</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1996,12 +1995,12 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.35161938264076109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66302871395484753</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -2044,12 +2043,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.70615247306889906</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78116559125497087</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -2092,12 +2091,12 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.82270084871694948</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53627876034159894</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -2140,12 +2139,12 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.23941832140802599</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72170214002827082</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
@@ -2188,12 +2187,12 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.44436241834164569</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9401168413233334</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -2236,12 +2235,12 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.85204924914508584</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31974672917652502</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
@@ -2284,12 +2283,12 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <f ca="1">RAND()</f>
-        <v>4.8883957022397562E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27683320768720154</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
@@ -2332,12 +2331,12 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.34822439002522632</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68715305286001849</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -2380,12 +2379,12 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <f ca="1">RAND()</f>
-        <v>5.1200647349733952E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32482799194050049</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -2428,12 +2427,12 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.34935819339226137</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33840360204724063</v>
       </c>
       <c r="C25" t="s">
         <v>70</v>
@@ -2476,12 +2475,12 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.61351935833182236</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74293918402453785</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
@@ -2524,12 +2523,12 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.85719088099568863</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88784251160746241</v>
       </c>
       <c r="C27" t="s">
         <v>167</v>
@@ -2572,12 +2571,12 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.82184350701905973</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50041890215617302</v>
       </c>
       <c r="C28" t="s">
         <v>78</v>
@@ -2620,12 +2619,12 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <f ca="1">RAND()</f>
-        <v>3.4416282271495069E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68696727418639747</v>
       </c>
       <c r="C29" t="s">
         <v>81</v>
@@ -2668,12 +2667,12 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.33039201722090372</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57802918062585551</v>
       </c>
       <c r="C30" t="s">
         <v>84</v>
@@ -2716,12 +2715,12 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.71103743595100344</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97586096081069862</v>
       </c>
       <c r="C31" t="s">
         <v>87</v>
@@ -2764,12 +2763,12 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.4768747726828696</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56883783956232414</v>
       </c>
       <c r="C32" t="s">
         <v>90</v>
@@ -2812,12 +2811,12 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.32235327706944061</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38526558119911181</v>
       </c>
       <c r="C33" t="s">
         <v>93</v>
@@ -2860,12 +2859,12 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.21019908064313986</v>
+        <f t="shared" ref="B34:B60" ca="1" si="1">RAND()</f>
+        <v>0.77138776961163713</v>
       </c>
       <c r="C34" t="s">
         <v>164</v>
@@ -2908,12 +2907,12 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.34513383244173423</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53392638220275279</v>
       </c>
       <c r="C35" t="s">
         <v>98</v>
@@ -2956,12 +2955,12 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <f ca="1">RAND()</f>
-        <v>5.1243679500516226E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90878309148634262</v>
       </c>
       <c r="C36" t="s">
         <v>101</v>
@@ -3004,12 +3003,12 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.1799452910863566</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11896086645229675</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
@@ -3052,12 +3051,12 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.96503873475127089</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7695734739147464E-2</v>
       </c>
       <c r="C38" t="s">
         <v>165</v>
@@ -3100,12 +3099,12 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.48688906820584432</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45094972491142948</v>
       </c>
       <c r="C39" t="s">
         <v>108</v>
@@ -3148,12 +3147,12 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.16981703506210655</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42273509542026777</v>
       </c>
       <c r="C40" t="s">
         <v>111</v>
@@ -3196,12 +3195,12 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.24352069306200896</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72478039522745019</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
@@ -3244,12 +3243,12 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.87762919251184712</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25884382691925634</v>
       </c>
       <c r="C42" t="s">
         <v>117</v>
@@ -3292,12 +3291,12 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="6">
-        <f ca="1">RAND()</f>
-        <v>9.7967016028581377E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49145325511970195</v>
       </c>
       <c r="C43" t="s">
         <v>120</v>
@@ -3340,12 +3339,12 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.53940331783854334</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1350388752793177E-2</v>
       </c>
       <c r="C44" t="s">
         <v>166</v>
@@ -3388,12 +3387,12 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.45294610997663387</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.5467784286890049E-2</v>
       </c>
       <c r="C45" t="s">
         <v>125</v>
@@ -3436,12 +3435,12 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.59750431722889641</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81730106024391069</v>
       </c>
       <c r="C46" t="s">
         <v>128</v>
@@ -3484,12 +3483,12 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.15475977221510018</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15304369056162037</v>
       </c>
       <c r="C47" t="s">
         <v>131</v>
@@ -3532,12 +3531,12 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.56777451341473328</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47953549144301288</v>
       </c>
       <c r="C48" t="s">
         <v>134</v>
@@ -3580,12 +3579,12 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.46225982271578858</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77994608358315065</v>
       </c>
       <c r="C49" t="s">
         <v>137</v>
@@ -3628,12 +3627,12 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.98269349822379903</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68420106624970856</v>
       </c>
       <c r="C50" t="s">
         <v>140</v>
@@ -3676,12 +3675,12 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.30609658704903686</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90866859269370426</v>
       </c>
       <c r="C51" t="s">
         <v>158</v>
@@ -3726,8 +3725,8 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.96402799315387855</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9207896250363898E-2</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>160</v>
@@ -3772,8 +3771,8 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.60771257024304981</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41920692243532232</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>163</v>
@@ -3818,8 +3817,8 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.90563956771548138</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.0915256072791468E-2</v>
       </c>
       <c r="C54" t="s">
         <v>145</v>
@@ -3864,8 +3863,8 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.54212199185282883</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43366896986828618</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>168</v>
@@ -3910,8 +3909,8 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.98052058352843274</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66336872228332</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>161</v>
@@ -3956,8 +3955,8 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6">
-        <f ca="1">RAND()</f>
-        <v>5.0645903735622722E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96579810986905479</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>169</v>
@@ -4002,8 +4001,8 @@
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.80788630876663903</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31069462103867018</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>162</v>
@@ -4048,8 +4047,8 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.81216156453660737</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62769585331884381</v>
       </c>
       <c r="C59" t="s">
         <v>147</v>
@@ -4094,8 +4093,8 @@
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.52095367228315281</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76592537767691082</v>
       </c>
       <c r="C60" t="s">
         <v>149</v>
@@ -4140,7 +4139,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10297,7 +10296,7 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L69" si="1">AVERAGE(B38:K38)</f>
+        <f t="shared" ref="L38:L64" si="1">AVERAGE(B38:K38)</f>
         <v>2.5750000000000002</v>
       </c>
     </row>
@@ -11951,7 +11950,7 @@
         <v>2.8</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G66" si="1">AVERAGE(B35:F35)</f>
+        <f t="shared" ref="G35:G61" si="1">AVERAGE(B35:F35)</f>
         <v>2.7999999999999994</v>
       </c>
     </row>

--- a/occupations.xlsx
+++ b/occupations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32835F5-761A-4E38-86A9-C210AE5EB7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02EDC53-8267-4A7B-A3A5-A8545BB97DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10120" yWindow="-21710" windowWidth="38620" windowHeight="21100" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="occupations" sheetId="1" r:id="rId1"/>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B33" ca="1" si="0">RAND()</f>
-        <v>0.35373313581122945</v>
+        <v>0.76522004354153816</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68594623784958286</v>
+        <v>0.31654941147724314</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93141748543568559</v>
+        <v>0.58163284045089259</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84637608101872575</v>
+        <v>0.37823851737127623</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83947787775826244</v>
+        <v>0.75597197171995711</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67524624389244348</v>
+        <v>0.65157963464230362</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98988489870341223</v>
+        <v>0.39769416779729905</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43391788004463849</v>
+        <v>0.91745260103651738</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48103881572013318</v>
+        <v>0.90289334902407559</v>
       </c>
       <c r="C10" t="s">
         <v>125</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19987775174177558</v>
+        <v>0.27077400243659422</v>
       </c>
       <c r="C11" t="s">
         <v>137</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1234113827533766</v>
+        <v>0.47845514317876592</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1995,7 +1995,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41953690065952964</v>
+        <v>3.5182734537801408E-2</v>
       </c>
       <c r="C13" t="s">
         <v>145</v>
@@ -2041,7 +2041,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21374518321458169</v>
+        <v>0.72943291053504744</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>160</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26205544344105991</v>
+        <v>0.86479221629065506</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -2135,7 +2135,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19159997879019164</v>
+        <v>0.54507447595126257</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>161</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33931386520488127</v>
+        <v>9.5274895562069806E-2</v>
       </c>
       <c r="C17" t="s">
         <v>134</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.999944325585986</v>
+        <v>0.56269260450739167</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2305393720725699E-2</v>
+        <v>0.22169799191175843</v>
       </c>
       <c r="C19" t="s">
         <v>103</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74956672259486656</v>
+        <v>0.61083903926386929</v>
       </c>
       <c r="C20" t="s">
         <v>108</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24861322929249263</v>
+        <v>0.69620214132660463</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80460378694143253</v>
+        <v>0.72410674622991633</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42246119049670983</v>
+        <v>0.78415083753419856</v>
       </c>
       <c r="C23" t="s">
         <v>98</v>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75761652826709358</v>
+        <v>0.20068304354931688</v>
       </c>
       <c r="C24" t="s">
         <v>84</v>
@@ -2565,7 +2565,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54118406421781129</v>
+        <v>0.84568520311416284</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>162</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32728180481649582</v>
+        <v>4.0828555881916251E-2</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91459775010018862</v>
+        <v>0.5761193295648076</v>
       </c>
       <c r="C27" t="s">
         <v>70</v>
@@ -2707,7 +2707,7 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41457469885269771</v>
+        <v>0.22769410479241392</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>168</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5760598544289981</v>
+        <v>0.1213817386381163</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8715389522302939E-2</v>
+        <v>0.14849395694934131</v>
       </c>
       <c r="C30" t="s">
         <v>140</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66599279417824875</v>
+        <v>9.9257809186055534E-2</v>
       </c>
       <c r="C31" t="s">
         <v>164</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3122612444900793</v>
+        <v>0.34223700285669068</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31912600311477812</v>
+        <v>0.89142571756749012</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B34" s="5">
         <f t="shared" ref="B34:B60" ca="1" si="1">RAND()</f>
-        <v>0.70569128442113616</v>
+        <v>0.32651895754530846</v>
       </c>
       <c r="C34" t="s">
         <v>165</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64370556633914888</v>
+        <v>0.27387024943388316</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
@@ -3089,7 +3089,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74980406243793241</v>
+        <v>0.56202522992661186</v>
       </c>
       <c r="C36" t="s">
         <v>149</v>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.767592821222983</v>
+        <v>0.81112678930866444</v>
       </c>
       <c r="C37" t="s">
         <v>128</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="B38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8497181526746314E-2</v>
+        <v>0.41734444445910079</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B39" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39965538115554355</v>
+        <v>0.6951548638771593</v>
       </c>
       <c r="C39" t="s">
         <v>93</v>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B40" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7201821424793113E-2</v>
+        <v>0.41174312266880986</v>
       </c>
       <c r="C40" t="s">
         <v>61</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B41" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57542143681276092</v>
+        <v>0.87629341900884961</v>
       </c>
       <c r="C41" t="s">
         <v>111</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B42" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83967906753891175</v>
+        <v>0.66168571701478729</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B43" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13177753773563583</v>
+        <v>0.81243543254575479</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
@@ -3471,7 +3471,7 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49532343355906649</v>
+        <v>0.93097210689074128</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>163</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35149926121964714</v>
+        <v>0.95682043419817642</v>
       </c>
       <c r="C45" t="s">
         <v>166</v>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64988210240534861</v>
+        <v>0.88226842919242932</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36629614194954929</v>
+        <v>0.72282046809382305</v>
       </c>
       <c r="C47" t="s">
         <v>158</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14980897682932603</v>
+        <v>0.79749081378315201</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -3709,7 +3709,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9658128183105315E-2</v>
+        <v>0.62231493496731594</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>169</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97174912155148774</v>
+        <v>0.86456626855302232</v>
       </c>
       <c r="C50" t="s">
         <v>167</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B51" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61706673721615912</v>
+        <v>0.34073196291122321</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B52" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79096657640591628</v>
+        <v>0.86368466962465928</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B53" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53908224811424132</v>
+        <v>0.1503745130605626</v>
       </c>
       <c r="C53" t="s">
         <v>81</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B54" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3587105900317985</v>
+        <v>0.3550681055483389</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B55" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18389764337759951</v>
+        <v>0.76664410327522503</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B56" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83040317763663141</v>
+        <v>0.76437621570069092</v>
       </c>
       <c r="C56" t="s">
         <v>101</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B57" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67352263247211397</v>
+        <v>0.34663397489127479</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B58" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30540319708815356</v>
+        <v>0.34153508607770311</v>
       </c>
       <c r="C58" t="s">
         <v>67</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B59" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41573649589415362</v>
+        <v>0.14991709381783913</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
@@ -4235,7 +4235,7 @@
       <c r="A60" s="5"/>
       <c r="B60" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9397499898894961</v>
+        <v>0.61407185766856476</v>
       </c>
       <c r="C60" t="s">
         <v>147</v>

--- a/occupations.xlsx
+++ b/occupations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02EDC53-8267-4A7B-A3A5-A8545BB97DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C9FE7-9081-4D08-B493-024B7F6163EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10120" yWindow="-21710" windowWidth="38620" windowHeight="21100" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="occupations" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="247">
   <si>
     <t>#</t>
   </si>
@@ -629,45 +629,9 @@
     <t>gemini_zh</t>
   </si>
   <si>
-    <t>Eredmények</t>
-  </si>
-  <si>
-    <t>Besorolás</t>
-  </si>
-  <si>
     <t>Pontszám</t>
   </si>
   <si>
-    <t>–2,80</t>
-  </si>
-  <si>
-    <t>–3,00</t>
-  </si>
-  <si>
-    <t>–2,50</t>
-  </si>
-  <si>
-    <t>–0,50</t>
-  </si>
-  <si>
-    <t>–1,80</t>
-  </si>
-  <si>
-    <t>–0,70</t>
-  </si>
-  <si>
-    <t>–1,50</t>
-  </si>
-  <si>
-    <t>–1,00</t>
-  </si>
-  <si>
-    <t>–0,30</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
     <t>AVE</t>
   </si>
   <si>
@@ -677,48 +641,6 @@
     <t>2.5 Flash</t>
   </si>
   <si>
-    <t>Skála</t>
-  </si>
-  <si>
-    <t>–2,10</t>
-  </si>
-  <si>
-    <t>–1,70</t>
-  </si>
-  <si>
-    <t>–1,20</t>
-  </si>
-  <si>
-    <t>–2,30</t>
-  </si>
-  <si>
-    <t>–0,80</t>
-  </si>
-  <si>
-    <t>–1,90</t>
-  </si>
-  <si>
-    <t>–0,40</t>
-  </si>
-  <si>
-    <t>–1,60</t>
-  </si>
-  <si>
-    <t>–0,60</t>
-  </si>
-  <si>
-    <t>–0,20</t>
-  </si>
-  <si>
-    <t>–0,10</t>
-  </si>
-  <si>
-    <t>–2,70</t>
-  </si>
-  <si>
-    <t>–0,90</t>
-  </si>
-  <si>
     <t>Érték (Férfi (-3) – Nő (-3))</t>
   </si>
   <si>
@@ -852,6 +774,15 @@
   </si>
   <si>
     <t>2.80</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Think Deeper</t>
+  </si>
+  <si>
+    <t>#_zh</t>
   </si>
 </sst>
 </file>
@@ -936,7 +867,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1040,29 +974,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB3D051F-1FFE-44D1-9748-CA7AD3145512}" name="Table2" displayName="Table2" ref="A1:O60" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:O60" xr:uid="{EB3D051F-1FFE-44D1-9748-CA7AD3145512}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O60">
-    <sortCondition ref="B1:B60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB3D051F-1FFE-44D1-9748-CA7AD3145512}" name="Table2" displayName="Table2" ref="A1:P60" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:P60" xr:uid="{EB3D051F-1FFE-44D1-9748-CA7AD3145512}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P60">
+    <sortCondition ref="A1:A60"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{251A4E38-76BB-451A-BA7D-3427A9C0D56D}" name="#" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{A874A889-7532-45D4-B042-5A57A6832C05}" name="r" dataDxfId="14">
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{251A4E38-76BB-451A-BA7D-3427A9C0D56D}" name="#" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{6B32F176-CF68-44D0-87E3-68F21AE081E4}" name="#_zh" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{A874A889-7532-45D4-B042-5A57A6832C05}" name="r" dataDxfId="15">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A494C8E6-F914-428C-8272-43E167056E6E}" name="zh" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B6C225BB-012E-4E5D-8791-79BFB3F1F024}" name="att_zh" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{29B59C04-5351-478E-936E-4FF56FD3C386}" name="en" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{1B4C41A2-3CB1-4152-B81F-485D7760D63F}" name="hu" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{B3E6153A-FA67-4701-B55F-729757CDEB41}" name="att_hu" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{5D26EFD2-BF07-4806-8FBB-9F219CC0741B}" name="chatgpt_hu" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{4A32F8C1-359D-4C9E-8195-02A92870A71F}" name="copilot_hu" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{F1FF7BC1-AC09-41A0-800C-522EDB48326B}" name="deepseek_hu" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{F30252C1-B7F3-463E-8FA4-511299C5F348}" name="gemini_hu" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{9ABFFE5E-A61F-4A56-9BD3-5CB3EAEDAC22}" name="chatgpt_zh" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{18983B9A-B075-414F-8D87-3F5A25C293D4}" name="copilot_zh" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{A39B0E6C-C60A-405D-9049-F1F4B921C73F}" name="deepseek_zh" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{09D3EAFF-C9B4-4CCD-803F-7FC1828A805E}" name="gemini_zh" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A494C8E6-F914-428C-8272-43E167056E6E}" name="zh" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B6C225BB-012E-4E5D-8791-79BFB3F1F024}" name="att_zh" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{29B59C04-5351-478E-936E-4FF56FD3C386}" name="en" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{1B4C41A2-3CB1-4152-B81F-485D7760D63F}" name="hu" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{B3E6153A-FA67-4701-B55F-729757CDEB41}" name="att_hu" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{5D26EFD2-BF07-4806-8FBB-9F219CC0741B}" name="chatgpt_hu" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{4A32F8C1-359D-4C9E-8195-02A92870A71F}" name="copilot_hu" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{F1FF7BC1-AC09-41A0-800C-522EDB48326B}" name="deepseek_hu" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{F30252C1-B7F3-463E-8FA4-511299C5F348}" name="gemini_hu" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{9ABFFE5E-A61F-4A56-9BD3-5CB3EAEDAC22}" name="chatgpt_zh" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{18983B9A-B075-414F-8D87-3F5A25C293D4}" name="copilot_zh" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{A39B0E6C-C60A-405D-9049-F1F4B921C73F}" name="deepseek_zh" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{09D3EAFF-C9B4-4CCD-803F-7FC1828A805E}" name="gemini_zh" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1390,2897 +1325,2910 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.4140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.12064366596922971</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.8810000000000002</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.9929999999999997</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1.115</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="N2" s="7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.55788656914202894</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
-        <f t="shared" ref="B2:B33" ca="1" si="0">RAND()</f>
-        <v>0.76522004354153816</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="7">
+        <v>-2.0088888888888885</v>
+      </c>
+      <c r="J3" s="5">
+        <v>-2.7510000000000003</v>
+      </c>
+      <c r="K3" s="7">
+        <v>-2.9499999999999997</v>
+      </c>
+      <c r="L3" s="5">
+        <v>-2.9799999999999995</v>
+      </c>
+      <c r="M3" s="7">
+        <v>-2</v>
+      </c>
+      <c r="N3" s="7">
+        <v>-2.5</v>
+      </c>
+      <c r="O3" s="7">
+        <v>-2.3600000000000003</v>
+      </c>
+      <c r="P3" s="7">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.18015329693866866</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-1.0744444444444445</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-1.3359999999999999</v>
+      </c>
+      <c r="K4" s="7">
+        <v>-2.29</v>
+      </c>
+      <c r="L4" s="5">
+        <v>-0.63</v>
+      </c>
+      <c r="M4" s="7">
+        <v>-1.25</v>
+      </c>
+      <c r="N4" s="7">
+        <v>-0.75</v>
+      </c>
+      <c r="O4" s="7">
+        <v>-1.26</v>
+      </c>
+      <c r="P4" s="7">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.44547230166488172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="7">
+        <v>-1.2877777777777777</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-2.5409999999999999</v>
+      </c>
+      <c r="K5" s="7">
+        <v>-2.09</v>
+      </c>
+      <c r="L5" s="5">
+        <v>-1.77</v>
+      </c>
+      <c r="M5" s="7">
+        <v>-2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>-2.25</v>
+      </c>
+      <c r="O5" s="7">
+        <v>-1.94</v>
+      </c>
+      <c r="P5" s="7">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.81455328492748358</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="7">
+        <v>-0.48777777777777787</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-0.752</v>
+      </c>
+      <c r="K6" s="7">
+        <v>-1.1800000000000002</v>
+      </c>
+      <c r="L6" s="5">
+        <v>-0.47000000000000003</v>
+      </c>
+      <c r="M6" s="7">
+        <v>-1.25</v>
+      </c>
+      <c r="N6" s="7">
+        <v>-1.575</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-1.6600000000000001</v>
+      </c>
+      <c r="P6" s="7">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <f ca="1">RAND()</f>
+        <v>3.9476236234702422E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2.8649999999999998</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2.58</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="O7" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="P7" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.12236971855148093</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-0.46777777777777779</v>
+      </c>
+      <c r="J8" s="5">
+        <v>-0.69400000000000006</v>
+      </c>
+      <c r="K8" s="7">
+        <v>-1.1199999999999999</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-1.0449999999999999</v>
+      </c>
+      <c r="M8" s="7">
+        <v>-1.25</v>
+      </c>
+      <c r="N8" s="7">
+        <v>-1.575</v>
+      </c>
+      <c r="O8" s="7">
+        <v>-1.3800000000000001</v>
+      </c>
+      <c r="P8" s="7">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.86948201053684138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2.9050000000000002</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.62</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3</v>
+      </c>
+      <c r="O9" s="7">
+        <v>3</v>
+      </c>
+      <c r="P9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.67071633415576337</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E10" t="s">
         <v>181</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H10" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I10" s="7">
         <v>0.63700000000000001</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J10" s="5">
         <v>0.371</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K10" s="7">
         <v>0.6100000000000001</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L10" s="5">
         <v>0.37</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M10" s="7">
         <v>1.24</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N10" s="7">
         <v>0.95</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O10" s="7">
         <v>0.7</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P10" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <f ca="1">RAND()</f>
+        <v>3.4941256378815067E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.1488888888888888</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.056</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.9560397785538397</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-0.8633333333333334</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-1.4910000000000001</v>
+      </c>
+      <c r="K12" s="7">
+        <v>-0.81500000000000006</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-0.51</v>
+      </c>
+      <c r="M12" s="7">
+        <v>-1.25</v>
+      </c>
+      <c r="N12" s="7">
+        <v>-1.45</v>
+      </c>
+      <c r="O12" s="7">
+        <v>-0.72</v>
+      </c>
+      <c r="P12" s="7">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.98346584554441585</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-0.55888888888888888</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-0.873</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-1.3</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-0.67</v>
+      </c>
+      <c r="M13" s="7">
+        <v>-1.25</v>
+      </c>
+      <c r="N13" s="7">
+        <v>-1.45</v>
+      </c>
+      <c r="O13" s="7">
+        <v>-1.3599999999999999</v>
+      </c>
+      <c r="P13" s="7">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.49106130402538306</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31654941147724314</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="J14" s="5">
+        <v>-0.99399999999999977</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-0.87500000000000022</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-0.51</v>
+      </c>
+      <c r="M14" s="7">
+        <v>-1.25</v>
+      </c>
+      <c r="N14" s="7">
+        <v>-1.125</v>
+      </c>
+      <c r="O14" s="7">
+        <v>-1.02</v>
+      </c>
+      <c r="P14" s="7">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.13192014479481418</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.4789999999999999</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2.58</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="O15" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="P15" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.45447115981150177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.5749999999999997</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.4849999999999999</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1.7900000000000003</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1.397</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1.58</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.26139855229369779</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="7">
+        <v>-0.7977777777777777</v>
+      </c>
+      <c r="J17" s="5">
+        <v>-1.5059999999999998</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-0.22999999999999998</v>
+      </c>
+      <c r="L17" s="5">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="M17" s="7">
+        <v>-1.25</v>
+      </c>
+      <c r="N17" s="7">
+        <v>-1.7</v>
+      </c>
+      <c r="O17" s="7">
+        <v>-0.64</v>
+      </c>
+      <c r="P17" s="7">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <f ca="1">RAND()</f>
+        <v>1.0226950458321893E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-1.1800000000000002</v>
+      </c>
+      <c r="J18" s="5">
+        <v>-1.661</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-2.605</v>
+      </c>
+      <c r="L18" s="5">
+        <v>-1.48</v>
+      </c>
+      <c r="M18" s="7">
+        <v>-1.75</v>
+      </c>
+      <c r="N18" s="7">
+        <v>-1.375</v>
+      </c>
+      <c r="O18" s="7">
+        <v>-1.8399999999999999</v>
+      </c>
+      <c r="P18" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.57269746731043303</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="7">
+        <v>-1.3522222222222222</v>
+      </c>
+      <c r="J19" s="5">
+        <v>-1.6880000000000002</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-2.66</v>
+      </c>
+      <c r="L19" s="5">
+        <v>-1.125</v>
+      </c>
+      <c r="M19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>-1.25</v>
+      </c>
+      <c r="O19" s="7">
+        <v>-1.44</v>
+      </c>
+      <c r="P19" s="7">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.99796387325315417</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2.835</v>
+      </c>
+      <c r="L20" s="5">
+        <v>3</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3</v>
+      </c>
+      <c r="O20" s="7">
+        <v>3</v>
+      </c>
+      <c r="P20" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.10361457934677243</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.27814167990474714</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="7">
+        <v>-1.9677777777777778</v>
+      </c>
+      <c r="J22" s="5">
+        <v>-2.7039999999999997</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-2.9499999999999997</v>
+      </c>
+      <c r="L22" s="5">
+        <v>-2.9849999999999999</v>
+      </c>
+      <c r="M22" s="7">
+        <v>-2.25</v>
+      </c>
+      <c r="N22" s="7">
+        <v>-2.5249999999999999</v>
+      </c>
+      <c r="O22" s="7">
+        <v>-2.58</v>
+      </c>
+      <c r="P22" s="7">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.11804086649955303</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="7">
+        <v>-1.298888888888889</v>
+      </c>
+      <c r="J23" s="5">
+        <v>-1.8980000000000001</v>
+      </c>
+      <c r="K23" s="7">
+        <v>-1.9850000000000001</v>
+      </c>
+      <c r="L23" s="5">
+        <v>-1.7250000000000001</v>
+      </c>
+      <c r="M23" s="7">
+        <v>-2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>-1.925</v>
+      </c>
+      <c r="O23" s="7">
+        <v>-2.16</v>
+      </c>
+      <c r="P23" s="7">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.73651297907509716</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2.8869999999999996</v>
+      </c>
+      <c r="J24" s="5">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3</v>
+      </c>
+      <c r="O24" s="7">
+        <v>3</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.8568902527680301</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="7">
+        <v>-0.8833333333333333</v>
+      </c>
+      <c r="J25" s="5">
+        <v>-1.1750000000000003</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-0.65</v>
+      </c>
+      <c r="L25" s="5">
+        <v>-0.86999999999999988</v>
+      </c>
+      <c r="M25" s="7">
+        <v>-1.5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>-2.0750000000000002</v>
+      </c>
+      <c r="O25" s="7">
+        <v>-1.6199999999999999</v>
+      </c>
+      <c r="P25" s="7">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.74508416706497582</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1.5550000000000002</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1.484</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1.86</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.46853052951782814</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1.1629999999999998</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1.3809999999999998</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1.375</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.74737412856223939</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.8933333333333332</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1.137</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-1.53</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="M28" s="7">
+        <v>2.2399999999999998</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="O28" s="7">
+        <v>2</v>
+      </c>
+      <c r="P28" s="7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.58760968162307692</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1.675</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2.3760000000000003</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="L29" s="5">
+        <v>2.3449999999999998</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.49947826919431981</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="7">
+        <v>-1.1900000000000002</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-1.3860000000000001</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="L30" s="5">
+        <v>-1.0399999999999998</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.70139618298952444</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2.9829999999999997</v>
+      </c>
+      <c r="J31" s="5">
+        <v>3</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2.8449999999999998</v>
+      </c>
+      <c r="L31" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3</v>
+      </c>
+      <c r="O31" s="7">
+        <v>3</v>
+      </c>
+      <c r="P31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5">
+        <f ca="1">RAND()</f>
+        <v>7.8912827585414957E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" s="7">
+        <v>-0.23399999999999999</v>
+      </c>
+      <c r="J32" s="5">
+        <v>-0.22800000000000004</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-0.62</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.155</v>
+      </c>
+      <c r="M32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>-0.57499999999999996</v>
+      </c>
+      <c r="O32" s="7">
+        <v>-0.27999999999999997</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.75694245125191917</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1.911</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2.0789999999999997</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="P33" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.46534554866883127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="7">
+        <v>-1.27</v>
+      </c>
+      <c r="J34" s="5">
+        <v>-1.8620000000000001</v>
+      </c>
+      <c r="K34" s="7">
+        <v>-1.5400000000000003</v>
+      </c>
+      <c r="L34" s="5">
+        <v>-1.75</v>
+      </c>
+      <c r="M34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="O34" s="7">
+        <v>-1.42</v>
+      </c>
+      <c r="P34" s="7">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.33053036707904715</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3</v>
+      </c>
+      <c r="K35" s="7">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="L35" s="5">
+        <v>3</v>
+      </c>
+      <c r="M35" s="7">
+        <v>3</v>
+      </c>
+      <c r="N35" s="7">
+        <v>3</v>
+      </c>
+      <c r="O35" s="7">
+        <v>3</v>
+      </c>
+      <c r="P35" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.24441901505471786</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1.7549999999999997</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="N36" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="O36" s="7">
+        <v>1.7600000000000002</v>
+      </c>
+      <c r="P36" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.21389363731746036</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.97800000000000009</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1.0430000000000001</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1.4949999999999999</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.68999999999999984</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1.34</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1.325</v>
+      </c>
+      <c r="O37" s="7">
+        <v>1.34</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.28676725940584136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" s="7">
+        <v>-0.6333333333333333</v>
+      </c>
+      <c r="J38" s="5">
+        <v>-1.0639999999999998</v>
+      </c>
+      <c r="K38" s="7">
+        <v>-0.43</v>
+      </c>
+      <c r="L38" s="5">
+        <v>-0.43</v>
+      </c>
+      <c r="M38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>-0.875</v>
+      </c>
+      <c r="O38" s="7">
+        <v>-1.24</v>
+      </c>
+      <c r="P38" s="7">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.10469968980424815</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" s="7">
+        <v>-0.63444444444444448</v>
+      </c>
+      <c r="J39" s="5">
+        <v>-0.61499999999999988</v>
+      </c>
+      <c r="K39" s="7">
+        <v>4.9999999999999819E-3</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O39" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="P39" s="7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.6944298078524187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.94799999999999984</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1.345</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1.375</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.74164438474305483</v>
+      </c>
+      <c r="D41" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E41" t="s">
         <v>181</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F41" t="s">
         <v>115</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G41" t="s">
         <v>116</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H41" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I41" s="7">
         <v>1.3339999999999999</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J41" s="5">
         <v>1.5950000000000002</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K41" s="7">
         <v>1.9449999999999998</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L41" s="5">
         <v>1.6600000000000001</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M41" s="7">
         <v>1.4</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N41" s="7">
         <v>1.875</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O41" s="7">
         <v>1.6600000000000001</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P41" s="7">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58163284045089259</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.41404330094358344</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" t="s">
         <v>181</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="7">
-        <v>-1.2877777777777777</v>
-      </c>
-      <c r="I4" s="5">
-        <v>-2.5409999999999999</v>
-      </c>
-      <c r="J4" s="7">
-        <v>-2.09</v>
-      </c>
-      <c r="K4" s="5">
-        <v>-1.77</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="I42" s="7">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.84000000000000019</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1.125</v>
+      </c>
+      <c r="O42" s="7">
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.16794094782463453</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="7">
+        <v>-1.4144444444444444</v>
+      </c>
+      <c r="J43" s="5">
+        <v>-2.2510000000000003</v>
+      </c>
+      <c r="K43" s="7">
+        <v>-2.5449999999999999</v>
+      </c>
+      <c r="L43" s="5">
+        <v>-1.23</v>
+      </c>
+      <c r="M43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N43" s="7">
+        <v>-1.825</v>
+      </c>
+      <c r="O43" s="7">
+        <v>-1.3800000000000001</v>
+      </c>
+      <c r="P43" s="7">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.3384285555612454</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="7">
+        <v>-1.4055555555555554</v>
+      </c>
+      <c r="J44" s="5">
+        <v>-1.9949999999999999</v>
+      </c>
+      <c r="K44" s="7">
+        <v>-2.2600000000000002</v>
+      </c>
+      <c r="L44" s="5">
+        <v>-2.62</v>
+      </c>
+      <c r="M44" s="7">
         <v>-2</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N44" s="7">
+        <v>-2.375</v>
+      </c>
+      <c r="O44" s="7">
+        <v>-2</v>
+      </c>
+      <c r="P44" s="7">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.82251524418267841</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" s="7">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="J45" s="5">
+        <v>3</v>
+      </c>
+      <c r="K45" s="7">
+        <v>2.9049999999999998</v>
+      </c>
+      <c r="L45" s="5">
+        <v>3</v>
+      </c>
+      <c r="M45" s="7">
+        <v>3</v>
+      </c>
+      <c r="N45" s="7">
+        <v>3</v>
+      </c>
+      <c r="O45" s="7">
+        <v>3</v>
+      </c>
+      <c r="P45" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.61225564840865165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1.8210000000000002</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1.895</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="M46" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="O46" s="7">
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="P46" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.6103328730924853</v>
+      </c>
+      <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47" s="7">
+        <v>-1.54</v>
+      </c>
+      <c r="J47" s="5">
+        <v>-2.1539999999999999</v>
+      </c>
+      <c r="K47" s="7">
+        <v>-2.6999999999999997</v>
+      </c>
+      <c r="L47" s="5">
+        <v>-2.1320000000000001</v>
+      </c>
+      <c r="M47" s="7">
         <v>-2.25</v>
       </c>
-      <c r="N4" s="7">
-        <v>-1.94</v>
-      </c>
-      <c r="O4" s="7">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37823851737127623</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="N47" s="7">
+        <v>-2.1</v>
+      </c>
+      <c r="O47" s="7">
+        <v>-2.12</v>
+      </c>
+      <c r="P47" s="7">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.60164504410322583</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" s="7">
+        <v>-0.28555555555555556</v>
+      </c>
+      <c r="J48" s="5">
+        <v>-1.0409999999999999</v>
+      </c>
+      <c r="K48" s="7">
+        <v>-0.37</v>
+      </c>
+      <c r="L48" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="M48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N48" s="7">
+        <v>-0.75</v>
+      </c>
+      <c r="O48" s="7">
+        <v>-1.04</v>
+      </c>
+      <c r="P48" s="7">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.15496077958555576</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49" s="7">
+        <v>2.6079999999999997</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2.5949999999999998</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2.7250000000000005</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2.625</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2.46</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2.4874999999999998</v>
+      </c>
+      <c r="O49" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P49" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C50" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.72159581293462038</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" t="s">
         <v>181</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" s="7">
+        <v>-1.2244444444444444</v>
+      </c>
+      <c r="J50" s="5">
+        <v>-2.1259999999999999</v>
+      </c>
+      <c r="K50" s="7">
+        <v>-1.97</v>
+      </c>
+      <c r="L50" s="5">
+        <v>-2.27</v>
+      </c>
+      <c r="M50" s="7">
+        <v>-2</v>
+      </c>
+      <c r="N50" s="7">
+        <v>-2.125</v>
+      </c>
+      <c r="O50" s="7">
+        <v>-2.34</v>
+      </c>
+      <c r="P50" s="7">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C51" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.15186220733216904</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="7">
-        <v>-1.1800000000000002</v>
-      </c>
-      <c r="I5" s="5">
-        <v>-1.661</v>
-      </c>
-      <c r="J5" s="7">
-        <v>-2.605</v>
-      </c>
-      <c r="K5" s="5">
-        <v>-1.48</v>
-      </c>
-      <c r="L5" s="7">
-        <v>-1.75</v>
-      </c>
-      <c r="M5" s="7">
-        <v>-1.375</v>
-      </c>
-      <c r="N5" s="7">
-        <v>-1.8399999999999999</v>
-      </c>
-      <c r="O5" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>42</v>
-      </c>
-      <c r="B6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75597197171995711</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" t="s">
         <v>181</v>
       </c>
-      <c r="E6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I51" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="J51" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.60757071783791472</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
         <v>181</v>
       </c>
-      <c r="H6" s="7">
-        <v>-1.4144444444444444</v>
-      </c>
-      <c r="I6" s="5">
-        <v>-2.2510000000000003</v>
-      </c>
-      <c r="J6" s="7">
-        <v>-2.5449999999999999</v>
-      </c>
-      <c r="K6" s="5">
-        <v>-1.23</v>
-      </c>
-      <c r="L6" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>-1.825</v>
-      </c>
-      <c r="N6" s="7">
-        <v>-1.3800000000000001</v>
-      </c>
-      <c r="O6" s="7">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65157963464230362</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F52" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52" t="s">
         <v>181</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I52" s="7">
+        <v>1.7810000000000001</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1.4499999999999997</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2.3899999999999997</v>
+      </c>
+      <c r="L52" s="5">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="M52" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="N52" s="7">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="O52" s="7">
+        <v>2.58</v>
+      </c>
+      <c r="P52" s="7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.68038452818854112</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="7">
-        <v>-2.0088888888888885</v>
-      </c>
-      <c r="I7" s="5">
-        <v>-2.7510000000000003</v>
-      </c>
-      <c r="J7" s="7">
-        <v>-2.9499999999999997</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-2.9799999999999995</v>
-      </c>
-      <c r="L7" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M7" s="7">
-        <v>-2.5</v>
-      </c>
-      <c r="N7" s="7">
-        <v>-2.3600000000000003</v>
-      </c>
-      <c r="O7" s="7">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39769416779729905</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I53" s="7">
+        <v>3</v>
+      </c>
+      <c r="J53" s="5">
+        <v>3</v>
+      </c>
+      <c r="K53" s="7">
+        <v>3</v>
+      </c>
+      <c r="L53" s="5">
+        <v>3</v>
+      </c>
+      <c r="M53" s="7">
+        <v>3</v>
+      </c>
+      <c r="N53" s="7">
+        <v>3</v>
+      </c>
+      <c r="O53" s="7">
+        <v>3</v>
+      </c>
+      <c r="P53" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5">
+        <f ca="1">RAND()</f>
+        <v>8.2989694786925083E-2</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" t="s">
         <v>181</v>
       </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I54" s="7">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="J54" s="5">
+        <v>3</v>
+      </c>
+      <c r="K54" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="L54" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="M54" s="7">
+        <v>3</v>
+      </c>
+      <c r="N54" s="7">
+        <v>3</v>
+      </c>
+      <c r="O54" s="7">
+        <v>3</v>
+      </c>
+      <c r="P54" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.90225452700346154</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H55" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.8933333333333332</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1.137</v>
-      </c>
-      <c r="J8" s="7">
-        <v>-1.53</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2.2399999999999998</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2</v>
-      </c>
-      <c r="O8" s="7">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>41</v>
-      </c>
-      <c r="B9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91745260103651738</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I55" s="7">
+        <v>2.8609999999999998</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3</v>
+      </c>
+      <c r="K55" s="7">
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="L55" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="M55" s="7">
+        <v>3</v>
+      </c>
+      <c r="N55" s="7">
+        <v>3</v>
+      </c>
+      <c r="O55" s="7">
+        <v>3</v>
+      </c>
+      <c r="P55" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.40375877722679676</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" t="s">
+        <v>191</v>
+      </c>
+      <c r="H56" t="s">
         <v>181</v>
       </c>
-      <c r="E9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I56" s="7">
+        <v>-2.6111111111111112</v>
+      </c>
+      <c r="J56" s="5">
+        <v>-3</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-1.9450000000000003</v>
+      </c>
+      <c r="L56" s="5">
+        <v>-2.95</v>
+      </c>
+      <c r="M56" s="7">
+        <v>-3</v>
+      </c>
+      <c r="N56" s="7">
+        <v>-3</v>
+      </c>
+      <c r="O56" s="7">
+        <v>-3</v>
+      </c>
+      <c r="P56" s="7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.6675688068028508</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="7">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.84000000000000019</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1.125</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1.3199999999999998</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90289334902407559</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H57" t="s">
         <v>181</v>
       </c>
-      <c r="E10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I57" s="7">
+        <v>2.9609999999999999</v>
+      </c>
+      <c r="J57" s="5">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2.9099999999999997</v>
+      </c>
+      <c r="L57" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="M57" s="7">
+        <v>1.9600000000000002</v>
+      </c>
+      <c r="N57" s="7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O57" s="7">
+        <v>1.58</v>
+      </c>
+      <c r="P57" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.60882514824811029</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="7">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="I10" s="5">
-        <v>3</v>
-      </c>
-      <c r="J10" s="7">
-        <v>2.9049999999999998</v>
-      </c>
-      <c r="K10" s="5">
-        <v>3</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3</v>
-      </c>
-      <c r="O10" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>48</v>
-      </c>
-      <c r="B11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27077400243659422</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" t="s">
         <v>181</v>
       </c>
-      <c r="E11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I58" s="7">
+        <v>-3</v>
+      </c>
+      <c r="J58" s="5">
+        <v>-3</v>
+      </c>
+      <c r="K58" s="7">
+        <v>-3</v>
+      </c>
+      <c r="L58" s="5">
+        <v>-3</v>
+      </c>
+      <c r="M58" s="7">
+        <v>-3</v>
+      </c>
+      <c r="N58" s="7">
+        <v>-3</v>
+      </c>
+      <c r="O58" s="7">
+        <v>-3</v>
+      </c>
+      <c r="P58" s="7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.33125237843672872</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="7">
-        <v>2.6079999999999997</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2.5949999999999998</v>
-      </c>
-      <c r="J11" s="7">
-        <v>2.7250000000000005</v>
-      </c>
-      <c r="K11" s="5">
-        <v>2.625</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2.46</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2.4874999999999998</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="O11" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47845514317876592</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="I59" s="7">
+        <v>-2.8288888888888888</v>
+      </c>
+      <c r="J59" s="5">
+        <v>-3</v>
+      </c>
+      <c r="K59" s="7">
+        <v>-2.2500000000000004</v>
+      </c>
+      <c r="L59" s="5">
+        <v>-2.95</v>
+      </c>
+      <c r="M59" s="7">
+        <v>-3</v>
+      </c>
+      <c r="N59" s="7">
+        <v>-3</v>
+      </c>
+      <c r="O59" s="7">
+        <v>-3</v>
+      </c>
+      <c r="P59" s="7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.37881793587797652</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" t="s">
         <v>181</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F60" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="7">
-        <v>-0.48777777777777787</v>
-      </c>
-      <c r="I12" s="5">
-        <v>-0.752</v>
-      </c>
-      <c r="J12" s="7">
-        <v>-1.1800000000000002</v>
-      </c>
-      <c r="K12" s="5">
-        <v>-0.47000000000000003</v>
-      </c>
-      <c r="L12" s="7">
-        <v>-1.25</v>
-      </c>
-      <c r="M12" s="7">
-        <v>-1.575</v>
-      </c>
-      <c r="N12" s="7">
-        <v>-1.6600000000000001</v>
-      </c>
-      <c r="O12" s="7">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5182734537801408E-2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1.7810000000000001</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1.4499999999999997</v>
-      </c>
-      <c r="J13" s="7">
-        <v>2.3899999999999997</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2.9750000000000001</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2.58</v>
-      </c>
-      <c r="O13" s="7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72943291053504744</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="5">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7">
-        <v>3</v>
-      </c>
-      <c r="K14" s="5">
-        <v>3</v>
-      </c>
-      <c r="L14" s="7">
-        <v>3</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3</v>
-      </c>
-      <c r="O14" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86479221629065506</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1.1488888888888888</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1.056</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54507447595126257</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2.8220000000000001</v>
-      </c>
-      <c r="I16" s="5">
-        <v>3</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2.11</v>
-      </c>
-      <c r="K16" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="L16" s="7">
-        <v>3</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3</v>
-      </c>
-      <c r="O16" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>47</v>
-      </c>
-      <c r="B17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5274895562069806E-2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="7">
-        <v>-0.28555555555555556</v>
-      </c>
-      <c r="I17" s="5">
-        <v>-1.0409999999999999</v>
-      </c>
-      <c r="J17" s="7">
-        <v>-0.37</v>
-      </c>
-      <c r="K17" s="5">
-        <v>-0.19</v>
-      </c>
-      <c r="L17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="7">
-        <v>-0.75</v>
-      </c>
-      <c r="N17" s="7">
-        <v>-1.04</v>
-      </c>
-      <c r="O17" s="7">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56269260450739167</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="7">
-        <v>-1.298888888888889</v>
-      </c>
-      <c r="I18" s="5">
-        <v>-1.8980000000000001</v>
-      </c>
-      <c r="J18" s="7">
-        <v>-1.9850000000000001</v>
-      </c>
-      <c r="K18" s="5">
-        <v>-1.7250000000000001</v>
-      </c>
-      <c r="L18" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>-1.925</v>
-      </c>
-      <c r="N18" s="7">
-        <v>-2.16</v>
-      </c>
-      <c r="O18" s="7">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>36</v>
-      </c>
-      <c r="B19" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22169799191175843</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" t="s">
-        <v>181</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.97800000000000009</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1.0430000000000001</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1.4949999999999999</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0.68999999999999984</v>
-      </c>
-      <c r="L19" s="7">
-        <v>1.34</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1.325</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1.34</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>38</v>
-      </c>
-      <c r="B20" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.61083903926386929</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="7">
-        <v>-0.63444444444444448</v>
-      </c>
-      <c r="I20" s="5">
-        <v>-0.61499999999999988</v>
-      </c>
-      <c r="J20" s="7">
-        <v>4.9999999999999819E-3</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="L20" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="O20" s="7">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.69620214132660463</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" s="7">
-        <v>-0.23399999999999999</v>
-      </c>
-      <c r="I21" s="5">
-        <v>-0.22800000000000004</v>
-      </c>
-      <c r="J21" s="7">
-        <v>-0.62</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0.155</v>
-      </c>
-      <c r="L21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M21" s="7">
-        <v>-0.57499999999999996</v>
-      </c>
-      <c r="N21" s="7">
-        <v>-0.27999999999999997</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72410674622991633</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22" s="7">
-        <v>-0.55888888888888888</v>
-      </c>
-      <c r="I22" s="5">
-        <v>-0.873</v>
-      </c>
-      <c r="J22" s="7">
-        <v>-1.3</v>
-      </c>
-      <c r="K22" s="5">
-        <v>-0.67</v>
-      </c>
-      <c r="L22" s="7">
-        <v>-1.25</v>
-      </c>
-      <c r="M22" s="7">
-        <v>-1.45</v>
-      </c>
-      <c r="N22" s="7">
-        <v>-1.3599999999999999</v>
-      </c>
-      <c r="O22" s="7">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>34</v>
-      </c>
-      <c r="B23" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78415083753419856</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="I23" s="5">
-        <v>3</v>
-      </c>
-      <c r="J23" s="7">
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="K23" s="5">
-        <v>3</v>
-      </c>
-      <c r="L23" s="7">
-        <v>3</v>
-      </c>
-      <c r="M23" s="7">
-        <v>3</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3</v>
-      </c>
-      <c r="O23" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20068304354931688</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="7">
-        <v>-1.1900000000000002</v>
-      </c>
-      <c r="I24" s="5">
-        <v>-1.3860000000000001</v>
-      </c>
-      <c r="J24" s="7">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="K24" s="5">
-        <v>-1.0399999999999998</v>
-      </c>
-      <c r="L24" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84568520311416284</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2.8609999999999998</v>
-      </c>
-      <c r="I25" s="5">
-        <v>3</v>
-      </c>
-      <c r="J25" s="7">
-        <v>2.4699999999999998</v>
-      </c>
-      <c r="K25" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="L25" s="7">
-        <v>3</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3</v>
-      </c>
-      <c r="O25" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.0828555881916251E-2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2.9910000000000001</v>
-      </c>
-      <c r="I26" s="5">
-        <v>3</v>
-      </c>
-      <c r="J26" s="7">
-        <v>2.835</v>
-      </c>
-      <c r="K26" s="5">
-        <v>3</v>
-      </c>
-      <c r="L26" s="7">
-        <v>3</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3</v>
-      </c>
-      <c r="O26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5761193295648076</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="7">
-        <v>-0.8833333333333333</v>
-      </c>
-      <c r="I27" s="5">
-        <v>-1.1750000000000003</v>
-      </c>
-      <c r="J27" s="7">
-        <v>-0.65</v>
-      </c>
-      <c r="K27" s="5">
-        <v>-0.86999999999999988</v>
-      </c>
-      <c r="L27" s="7">
-        <v>-1.5</v>
-      </c>
-      <c r="M27" s="7">
-        <v>-2.0750000000000002</v>
-      </c>
-      <c r="N27" s="7">
-        <v>-1.6199999999999999</v>
-      </c>
-      <c r="O27" s="7">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22769410479241392</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="7">
-        <v>-2.6111111111111112</v>
-      </c>
-      <c r="I28" s="5">
-        <v>-3</v>
-      </c>
-      <c r="J28" s="7">
-        <v>-1.9450000000000003</v>
-      </c>
-      <c r="K28" s="5">
-        <v>-2.95</v>
-      </c>
-      <c r="L28" s="7">
-        <v>-3</v>
-      </c>
-      <c r="M28" s="7">
-        <v>-3</v>
-      </c>
-      <c r="N28" s="7">
-        <v>-3</v>
-      </c>
-      <c r="O28" s="7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>46</v>
-      </c>
-      <c r="B29" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1213817386381163</v>
-      </c>
-      <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="7">
-        <v>-1.54</v>
-      </c>
-      <c r="I29" s="5">
-        <v>-2.1539999999999999</v>
-      </c>
-      <c r="J29" s="7">
-        <v>-2.6999999999999997</v>
-      </c>
-      <c r="K29" s="5">
-        <v>-2.1320000000000001</v>
-      </c>
-      <c r="L29" s="7">
-        <v>-2.25</v>
-      </c>
-      <c r="M29" s="7">
-        <v>-2.1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>-2.12</v>
-      </c>
-      <c r="O29" s="7">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>49</v>
-      </c>
-      <c r="B30" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14849395694934131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" t="s">
-        <v>181</v>
-      </c>
-      <c r="H30" s="7">
-        <v>-1.2244444444444444</v>
-      </c>
-      <c r="I30" s="5">
-        <v>-2.1259999999999999</v>
-      </c>
-      <c r="J30" s="7">
-        <v>-1.97</v>
-      </c>
-      <c r="K30" s="5">
-        <v>-2.27</v>
-      </c>
-      <c r="L30" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M30" s="7">
-        <v>-2.125</v>
-      </c>
-      <c r="N30" s="7">
-        <v>-2.34</v>
-      </c>
-      <c r="O30" s="7">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>33</v>
-      </c>
-      <c r="B31" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9257809186055534E-2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31" s="7">
-        <v>-1.27</v>
-      </c>
-      <c r="I31" s="5">
-        <v>-1.8620000000000001</v>
-      </c>
-      <c r="J31" s="7">
-        <v>-1.5400000000000003</v>
-      </c>
-      <c r="K31" s="5">
-        <v>-1.75</v>
-      </c>
-      <c r="L31" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M31" s="7">
-        <v>-0.89999999999999991</v>
-      </c>
-      <c r="N31" s="7">
-        <v>-1.42</v>
-      </c>
-      <c r="O31" s="7">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34223700285669068</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="J32" s="7">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="L32" s="7">
-        <v>1.3599999999999999</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89142571756749012</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33" s="7">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="I33" s="5">
-        <v>-0.99399999999999977</v>
-      </c>
-      <c r="J33" s="7">
-        <v>-0.87500000000000022</v>
-      </c>
-      <c r="K33" s="5">
-        <v>-0.51</v>
-      </c>
-      <c r="L33" s="7">
-        <v>-1.25</v>
-      </c>
-      <c r="M33" s="7">
-        <v>-1.125</v>
-      </c>
-      <c r="N33" s="7">
-        <v>-1.02</v>
-      </c>
-      <c r="O33" s="7">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>37</v>
-      </c>
-      <c r="B34" s="5">
-        <f t="shared" ref="B34:B60" ca="1" si="1">RAND()</f>
-        <v>0.32651895754530846</v>
-      </c>
-      <c r="C34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="7">
-        <v>-0.6333333333333333</v>
-      </c>
-      <c r="I34" s="5">
-        <v>-1.0639999999999998</v>
-      </c>
-      <c r="J34" s="7">
-        <v>-0.43</v>
-      </c>
-      <c r="K34" s="5">
-        <v>-0.43</v>
-      </c>
-      <c r="L34" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="7">
-        <v>-0.875</v>
-      </c>
-      <c r="N34" s="7">
-        <v>-1.24</v>
-      </c>
-      <c r="O34" s="7">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>15</v>
-      </c>
-      <c r="B35" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27387024943388316</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1.5749999999999997</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1.4849999999999999</v>
-      </c>
-      <c r="J35" s="7">
-        <v>1.7900000000000003</v>
-      </c>
-      <c r="K35" s="5">
-        <v>1.397</v>
-      </c>
-      <c r="L35" s="7">
-        <v>1.58</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1.6199999999999999</v>
-      </c>
-      <c r="O35" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56202522992661186</v>
-      </c>
-      <c r="C36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" t="s">
-        <v>176</v>
-      </c>
-      <c r="G36" t="s">
-        <v>181</v>
-      </c>
-      <c r="H36" s="7">
-        <v>2.9609999999999999</v>
-      </c>
-      <c r="I36" s="5">
-        <v>2.9660000000000002</v>
-      </c>
-      <c r="J36" s="7">
-        <v>2.9099999999999997</v>
-      </c>
-      <c r="K36" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="L36" s="7">
-        <v>1.9600000000000002</v>
-      </c>
-      <c r="M36" s="7">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1.58</v>
-      </c>
-      <c r="O36" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>45</v>
-      </c>
-      <c r="B37" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.81112678930866444</v>
-      </c>
-      <c r="C37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" t="s">
-        <v>181</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1.8210000000000002</v>
-      </c>
-      <c r="J37" s="7">
-        <v>1.895</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0.98000000000000009</v>
-      </c>
-      <c r="L37" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="O37" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41734444445910079</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="7">
-        <v>-1.0744444444444445</v>
-      </c>
-      <c r="I38" s="5">
-        <v>-1.3359999999999999</v>
-      </c>
-      <c r="J38" s="7">
-        <v>-2.29</v>
-      </c>
-      <c r="K38" s="5">
-        <v>-0.63</v>
-      </c>
-      <c r="L38" s="7">
-        <v>-1.25</v>
-      </c>
-      <c r="M38" s="7">
-        <v>-0.75</v>
-      </c>
-      <c r="N38" s="7">
-        <v>-1.26</v>
-      </c>
-      <c r="O38" s="7">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="B39" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6951548638771593</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1.911</v>
-      </c>
-      <c r="I39" s="5">
-        <v>2.0789999999999997</v>
-      </c>
-      <c r="J39" s="7">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="K39" s="5">
-        <v>1.53</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="O39" s="7">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>21</v>
-      </c>
-      <c r="B40" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41174312266880986</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="7">
-        <v>-1.9677777777777778</v>
-      </c>
-      <c r="I40" s="5">
-        <v>-2.7039999999999997</v>
-      </c>
-      <c r="J40" s="7">
-        <v>-2.9499999999999997</v>
-      </c>
-      <c r="K40" s="5">
-        <v>-2.9849999999999999</v>
-      </c>
-      <c r="L40" s="7">
-        <v>-2.25</v>
-      </c>
-      <c r="M40" s="7">
-        <v>-2.5249999999999999</v>
-      </c>
-      <c r="N40" s="7">
-        <v>-2.58</v>
-      </c>
-      <c r="O40" s="7">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.87629341900884961</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" t="s">
-        <v>181</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0.94799999999999984</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="J41" s="7">
-        <v>1.345</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0.69000000000000006</v>
-      </c>
-      <c r="L41" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="M41" s="7">
-        <v>1.375</v>
-      </c>
-      <c r="N41" s="7">
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>25</v>
-      </c>
-      <c r="B42" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66168571701478729</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="7">
-        <v>1.5550000000000002</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1.484</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="L42" s="7">
-        <v>2.08</v>
-      </c>
-      <c r="M42" s="7">
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="N42" s="7">
-        <v>1.86</v>
-      </c>
-      <c r="O42" s="7">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.81243543254575479</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>181</v>
-      </c>
-      <c r="H43" s="7">
-        <v>2.9409999999999998</v>
-      </c>
-      <c r="I43" s="5">
-        <v>3</v>
-      </c>
-      <c r="J43" s="7">
-        <v>2.8649999999999998</v>
-      </c>
-      <c r="K43" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="L43" s="7">
-        <v>2.58</v>
-      </c>
-      <c r="M43" s="7">
-        <v>2.6749999999999998</v>
-      </c>
-      <c r="N43" s="7">
-        <v>2.34</v>
-      </c>
-      <c r="O43" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.93097210689074128</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H44" s="7">
-        <v>-3</v>
-      </c>
-      <c r="I44" s="5">
-        <v>-3</v>
-      </c>
-      <c r="J44" s="7">
-        <v>-3</v>
-      </c>
-      <c r="K44" s="5">
-        <v>-3</v>
-      </c>
-      <c r="L44" s="7">
-        <v>-3</v>
-      </c>
-      <c r="M44" s="7">
-        <v>-3</v>
-      </c>
-      <c r="N44" s="7">
-        <v>-3</v>
-      </c>
-      <c r="O44" s="7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95682043419817642</v>
-      </c>
-      <c r="C45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" t="s">
-        <v>181</v>
-      </c>
-      <c r="H45" s="7">
-        <v>-1.4055555555555554</v>
-      </c>
-      <c r="I45" s="5">
-        <v>-1.9949999999999999</v>
-      </c>
-      <c r="J45" s="7">
-        <v>-2.2600000000000002</v>
-      </c>
-      <c r="K45" s="5">
-        <v>-2.62</v>
-      </c>
-      <c r="L45" s="7">
-        <v>-2</v>
-      </c>
-      <c r="M45" s="7">
-        <v>-2.375</v>
-      </c>
-      <c r="N45" s="7">
-        <v>-2</v>
-      </c>
-      <c r="O45" s="7">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>18</v>
-      </c>
-      <c r="B46" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.88226842919242932</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s">
-        <v>181</v>
-      </c>
-      <c r="H46" s="7">
-        <v>-1.3522222222222222</v>
-      </c>
-      <c r="I46" s="5">
-        <v>-1.6880000000000002</v>
-      </c>
-      <c r="J46" s="7">
-        <v>-2.66</v>
-      </c>
-      <c r="K46" s="5">
-        <v>-1.125</v>
-      </c>
-      <c r="L46" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M46" s="7">
-        <v>-1.25</v>
-      </c>
-      <c r="N46" s="7">
-        <v>-1.44</v>
-      </c>
-      <c r="O46" s="7">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>50</v>
-      </c>
-      <c r="B47" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72282046809382305</v>
-      </c>
-      <c r="C47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" t="s">
-        <v>181</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I47" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="7">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="B48" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.79749081378315201</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>179</v>
-      </c>
-      <c r="H48" s="7">
-        <v>2.9050000000000002</v>
-      </c>
-      <c r="I48" s="5">
-        <v>3</v>
-      </c>
-      <c r="J48" s="7">
-        <v>2.62</v>
-      </c>
-      <c r="K48" s="5">
-        <v>3</v>
-      </c>
-      <c r="L48" s="7">
-        <v>3</v>
-      </c>
-      <c r="M48" s="7">
-        <v>3</v>
-      </c>
-      <c r="N48" s="7">
-        <v>3</v>
-      </c>
-      <c r="O48" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.62231493496731594</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49" t="s">
-        <v>181</v>
-      </c>
-      <c r="H49" s="7">
-        <v>-2.8288888888888888</v>
-      </c>
-      <c r="I49" s="5">
-        <v>-3</v>
-      </c>
-      <c r="J49" s="7">
-        <v>-2.2500000000000004</v>
-      </c>
-      <c r="K49" s="5">
-        <v>-2.95</v>
-      </c>
-      <c r="L49" s="7">
-        <v>-3</v>
-      </c>
-      <c r="M49" s="7">
-        <v>-3</v>
-      </c>
-      <c r="N49" s="7">
-        <v>-3</v>
-      </c>
-      <c r="O49" s="7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>26</v>
-      </c>
-      <c r="B50" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86456626855302232</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s">
-        <v>181</v>
-      </c>
-      <c r="H50" s="7">
-        <v>1.1629999999999998</v>
-      </c>
-      <c r="I50" s="5">
-        <v>1.3809999999999998</v>
-      </c>
-      <c r="J50" s="7">
-        <v>1.32</v>
-      </c>
-      <c r="K50" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="L50" s="7">
-        <v>1.3599999999999999</v>
-      </c>
-      <c r="M50" s="7">
-        <v>1.375</v>
-      </c>
-      <c r="N50" s="7">
-        <v>1.3599999999999999</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>16</v>
-      </c>
-      <c r="B51" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34073196291122321</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" t="s">
-        <v>181</v>
-      </c>
-      <c r="H51" s="7">
-        <v>-0.7977777777777777</v>
-      </c>
-      <c r="I51" s="5">
-        <v>-1.5059999999999998</v>
-      </c>
-      <c r="J51" s="7">
-        <v>-0.22999999999999998</v>
-      </c>
-      <c r="K51" s="5">
-        <v>-0.17499999999999999</v>
-      </c>
-      <c r="L51" s="7">
-        <v>-1.25</v>
-      </c>
-      <c r="M51" s="7">
-        <v>-1.7</v>
-      </c>
-      <c r="N51" s="7">
-        <v>-0.64</v>
-      </c>
-      <c r="O51" s="7">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86368466962465928</v>
-      </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" t="s">
-        <v>179</v>
-      </c>
-      <c r="H52" s="7">
-        <v>2.9829999999999997</v>
-      </c>
-      <c r="I52" s="5">
-        <v>3</v>
-      </c>
-      <c r="J52" s="7">
-        <v>2.8449999999999998</v>
-      </c>
-      <c r="K52" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="L52" s="7">
-        <v>3</v>
-      </c>
-      <c r="M52" s="7">
-        <v>3</v>
-      </c>
-      <c r="N52" s="7">
-        <v>3</v>
-      </c>
-      <c r="O52" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>28</v>
-      </c>
-      <c r="B53" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1503745130605626</v>
-      </c>
-      <c r="C53" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" t="s">
-        <v>181</v>
-      </c>
-      <c r="E53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" t="s">
-        <v>181</v>
-      </c>
-      <c r="H53" s="7">
-        <v>1.675</v>
-      </c>
-      <c r="I53" s="5">
-        <v>2.3760000000000003</v>
-      </c>
-      <c r="J53" s="7">
-        <v>1.8399999999999999</v>
-      </c>
-      <c r="K53" s="5">
-        <v>2.3449999999999998</v>
-      </c>
-      <c r="L53" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="M53" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="N53" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="O53" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>14</v>
-      </c>
-      <c r="B54" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3550681055483389</v>
-      </c>
-      <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s">
-        <v>181</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="I54" s="5">
-        <v>1.4789999999999999</v>
-      </c>
-      <c r="J54" s="7">
-        <v>0.80499999999999994</v>
-      </c>
-      <c r="K54" s="5">
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="L54" s="7">
-        <v>2.58</v>
-      </c>
-      <c r="M54" s="7">
-        <v>2.6749999999999998</v>
-      </c>
-      <c r="N54" s="7">
-        <v>2.34</v>
-      </c>
-      <c r="O54" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>7</v>
-      </c>
-      <c r="B55" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.76664410327522503</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>181</v>
-      </c>
-      <c r="H55" s="7">
-        <v>-0.46777777777777779</v>
-      </c>
-      <c r="I55" s="5">
-        <v>-0.69400000000000006</v>
-      </c>
-      <c r="J55" s="7">
-        <v>-1.1199999999999999</v>
-      </c>
-      <c r="K55" s="5">
-        <v>-1.0449999999999999</v>
-      </c>
-      <c r="L55" s="7">
-        <v>-1.25</v>
-      </c>
-      <c r="M55" s="7">
-        <v>-1.575</v>
-      </c>
-      <c r="N55" s="7">
-        <v>-1.3800000000000001</v>
-      </c>
-      <c r="O55" s="7">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>35</v>
-      </c>
-      <c r="B56" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.76437621570069092</v>
-      </c>
-      <c r="C56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" t="s">
-        <v>181</v>
-      </c>
-      <c r="H56" s="7">
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1.7549999999999997</v>
-      </c>
-      <c r="K56" s="5">
-        <v>1.1800000000000002</v>
-      </c>
-      <c r="L56" s="7">
-        <v>1.92</v>
-      </c>
-      <c r="M56" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="N56" s="7">
-        <v>1.7600000000000002</v>
-      </c>
-      <c r="O56" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34663397489127479</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" t="s">
-        <v>181</v>
-      </c>
-      <c r="H57" s="7">
-        <v>1.8810000000000002</v>
-      </c>
-      <c r="I57" s="5">
-        <v>1.9929999999999997</v>
-      </c>
-      <c r="J57" s="7">
-        <v>0.97000000000000008</v>
-      </c>
-      <c r="K57" s="5">
-        <v>1.115</v>
-      </c>
-      <c r="L57" s="7">
-        <v>1.8399999999999999</v>
-      </c>
-      <c r="M57" s="7">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="N57" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>23</v>
-      </c>
-      <c r="B58" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34153508607770311</v>
-      </c>
-      <c r="C58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" t="s">
-        <v>181</v>
-      </c>
-      <c r="E58" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s">
-        <v>179</v>
-      </c>
-      <c r="H58" s="7">
-        <v>2.8869999999999996</v>
-      </c>
-      <c r="I58" s="5">
-        <v>3</v>
-      </c>
-      <c r="J58" s="7">
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="K58" s="5">
-        <v>3</v>
-      </c>
-      <c r="L58" s="7">
-        <v>3</v>
-      </c>
-      <c r="M58" s="7">
-        <v>3</v>
-      </c>
-      <c r="N58" s="7">
-        <v>3</v>
-      </c>
-      <c r="O58" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>11</v>
-      </c>
-      <c r="B59" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14991709381783913</v>
-      </c>
-      <c r="C59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>181</v>
-      </c>
-      <c r="H59" s="7">
-        <v>-0.8633333333333334</v>
-      </c>
-      <c r="I59" s="5">
-        <v>-1.4910000000000001</v>
-      </c>
-      <c r="J59" s="7">
-        <v>-0.81500000000000006</v>
-      </c>
-      <c r="K59" s="5">
-        <v>-0.51</v>
-      </c>
-      <c r="L59" s="7">
-        <v>-1.25</v>
-      </c>
-      <c r="M59" s="7">
-        <v>-1.45</v>
-      </c>
-      <c r="N59" s="7">
-        <v>-0.72</v>
-      </c>
-      <c r="O59" s="7">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61407185766856476</v>
-      </c>
-      <c r="C60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" t="s">
-        <v>181</v>
-      </c>
-      <c r="H60" s="7">
+      <c r="I60" s="7">
         <v>2.569</v>
       </c>
-      <c r="I60" s="5">
+      <c r="J60" s="5">
         <v>2.6339999999999999</v>
       </c>
-      <c r="J60" s="7">
+      <c r="K60" s="7">
         <v>2.3950000000000005</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>2.27</v>
       </c>
-      <c r="L60" s="7">
+      <c r="M60" s="7">
         <v>2.48</v>
       </c>
-      <c r="M60" s="7">
+      <c r="N60" s="7">
         <v>2.4750000000000001</v>
       </c>
-      <c r="N60" s="7">
+      <c r="O60" s="7">
         <v>2.38</v>
       </c>
-      <c r="O60" s="7">
+      <c r="P60" s="7">
         <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4302,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4320,27 +4268,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -5761,7 +5709,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5775,7 +5723,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L63"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5785,6 +5733,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
       <c r="B1">
         <v>1</v>
       </c>
@@ -5816,47 +5767,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8170,12 +8081,15 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L62"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
       <c r="B1">
         <v>1</v>
       </c>
@@ -8206,40 +8120,8 @@
       <c r="K1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" t="s">
-        <v>152</v>
+      <c r="L1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8309,15 +8191,15 @@
       <c r="I5">
         <v>-2</v>
       </c>
-      <c r="J5" t="s">
-        <v>212</v>
+      <c r="J5">
+        <v>-2.1</v>
       </c>
       <c r="K5">
         <v>-2.5</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L62" si="0">AVERAGE(B5:K5)</f>
-        <v>-1.54</v>
+        <v>-1.5959999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8348,15 +8230,15 @@
       <c r="I6">
         <v>-2.5</v>
       </c>
-      <c r="J6" t="s">
-        <v>200</v>
+      <c r="J6">
+        <v>-2.5</v>
       </c>
       <c r="K6">
         <v>-2.5</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>-1.9677777777777778</v>
+        <v>-2.0209999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -8387,15 +8269,15 @@
       <c r="I7">
         <v>-2</v>
       </c>
-      <c r="J7" t="s">
-        <v>202</v>
+      <c r="J7">
+        <v>-1.8</v>
       </c>
       <c r="K7">
         <v>-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>-1.3522222222222222</v>
+        <v>-1.397</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -8582,15 +8464,15 @@
       <c r="I12">
         <v>-0.5</v>
       </c>
-      <c r="J12" t="s">
-        <v>201</v>
+      <c r="J12">
+        <v>-0.5</v>
       </c>
       <c r="K12">
         <v>-1.5</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>-0.28555555555555556</v>
+        <v>-0.307</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -8621,15 +8503,15 @@
       <c r="I13">
         <v>-1.5</v>
       </c>
-      <c r="J13" t="s">
-        <v>213</v>
+      <c r="J13">
+        <v>-1.7</v>
       </c>
       <c r="K13">
         <v>-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>-1.298888888888889</v>
+        <v>-1.339</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -8699,15 +8581,15 @@
       <c r="I15">
         <v>-1.5</v>
       </c>
-      <c r="J15" t="s">
-        <v>214</v>
+      <c r="J15">
+        <v>-1.2</v>
       </c>
       <c r="K15">
         <v>-2.5</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>-1.0744444444444445</v>
+        <v>-1.087</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -8738,15 +8620,15 @@
       <c r="I16">
         <v>-1</v>
       </c>
-      <c r="J16" t="s">
-        <v>215</v>
+      <c r="J16">
+        <v>-2.2999999999999998</v>
       </c>
       <c r="K16">
         <v>-1.5</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>-1.27</v>
+        <v>-1.373</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -9050,15 +8932,15 @@
       <c r="I24">
         <v>-1.5</v>
       </c>
-      <c r="J24" t="s">
-        <v>204</v>
+      <c r="J24">
+        <v>-1.5</v>
       </c>
       <c r="K24">
         <v>-1.5</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>-1.1800000000000002</v>
+        <v>-1.2120000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -9128,15 +9010,15 @@
       <c r="I26">
         <v>-0.5</v>
       </c>
-      <c r="J26" t="s">
-        <v>206</v>
+      <c r="J26">
+        <v>-0.3</v>
       </c>
       <c r="K26">
         <v>-1.5</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>-0.55888888888888888</v>
+        <v>-0.53300000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -9245,15 +9127,15 @@
       <c r="I29">
         <v>-3</v>
       </c>
-      <c r="J29" t="s">
-        <v>216</v>
+      <c r="J29">
+        <v>-0.8</v>
       </c>
       <c r="K29">
         <v>-1.5</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>-0.63444444444444448</v>
+        <v>-0.65100000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -9284,15 +9166,15 @@
       <c r="I30">
         <v>-1.5</v>
       </c>
-      <c r="J30" t="s">
-        <v>203</v>
+      <c r="J30">
+        <v>-0.7</v>
       </c>
       <c r="K30">
         <v>-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>-0.7977777777777777</v>
+        <v>-0.78800000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -9323,15 +9205,15 @@
       <c r="I31">
         <v>-2</v>
       </c>
-      <c r="J31" t="s">
-        <v>217</v>
+      <c r="J31">
+        <v>-1.9</v>
       </c>
       <c r="K31">
         <v>-1.5</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>-1.2244444444444444</v>
+        <v>-1.292</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -9440,8 +9322,8 @@
       <c r="I34">
         <v>-3</v>
       </c>
-      <c r="J34" t="s">
-        <v>199</v>
+      <c r="J34">
+        <v>-3</v>
       </c>
       <c r="K34">
         <v>-3</v>
@@ -9479,15 +9361,15 @@
       <c r="I35">
         <v>-1</v>
       </c>
-      <c r="J35" t="s">
-        <v>218</v>
+      <c r="J35">
+        <v>-0.4</v>
       </c>
       <c r="K35">
         <v>-1</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>-0.56000000000000005</v>
+        <v>-0.54400000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -9557,15 +9439,15 @@
       <c r="I37">
         <v>-2</v>
       </c>
-      <c r="J37" t="s">
-        <v>219</v>
+      <c r="J37">
+        <v>-1.6</v>
       </c>
       <c r="K37">
         <v>-2</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>-1.4144444444444444</v>
+        <v>-1.4330000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -9596,15 +9478,15 @@
       <c r="I38">
         <v>-3</v>
       </c>
-      <c r="J38" t="s">
-        <v>199</v>
+      <c r="J38">
+        <v>-3</v>
       </c>
       <c r="K38">
         <v>-3</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>-2.8288888888888888</v>
+        <v>-2.8460000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -9635,15 +9517,15 @@
       <c r="I39">
         <v>-2</v>
       </c>
-      <c r="J39" t="s">
-        <v>204</v>
+      <c r="J39">
+        <v>-1.5</v>
       </c>
       <c r="K39">
         <v>-2.5</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>-1.4055555555555554</v>
+        <v>-1.4149999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -9674,15 +9556,15 @@
       <c r="I40">
         <v>-1.5</v>
       </c>
-      <c r="J40" t="s">
-        <v>220</v>
+      <c r="J40">
+        <v>-0.6</v>
       </c>
       <c r="K40">
         <v>-1.5</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>-0.8633333333333334</v>
+        <v>-0.83700000000000008</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -9713,15 +9595,15 @@
       <c r="I41">
         <v>-1.5</v>
       </c>
-      <c r="J41" t="s">
-        <v>221</v>
+      <c r="J41">
+        <v>-0.2</v>
       </c>
       <c r="K41">
         <v>-2</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>-0.8833333333333333</v>
+        <v>-0.81500000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -9830,15 +9712,15 @@
       <c r="I44">
         <v>-1</v>
       </c>
-      <c r="J44" t="s">
-        <v>222</v>
+      <c r="J44">
+        <v>-0.1</v>
       </c>
       <c r="K44">
         <v>-1</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>-0.46777777777777779</v>
+        <v>-0.43100000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -9869,15 +9751,15 @@
       <c r="I45">
         <v>-3</v>
       </c>
-      <c r="J45" t="s">
-        <v>198</v>
+      <c r="J45">
+        <v>-2.8</v>
       </c>
       <c r="K45">
         <v>-3</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>-2.6111111111111112</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -9947,15 +9829,15 @@
       <c r="I47">
         <v>-1</v>
       </c>
-      <c r="J47" t="s">
-        <v>221</v>
+      <c r="J47">
+        <v>-0.2</v>
       </c>
       <c r="K47">
         <v>-1</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>-0.48777777777777787</v>
+        <v>-0.45899999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -10064,15 +9946,15 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50" t="s">
-        <v>218</v>
+      <c r="J50">
+        <v>-0.4</v>
       </c>
       <c r="K50">
         <v>1.5</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>1.1488888888888888</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -10103,15 +9985,15 @@
       <c r="I51">
         <v>-1</v>
       </c>
-      <c r="J51" t="s">
-        <v>221</v>
+      <c r="J51">
+        <v>-0.2</v>
       </c>
       <c r="K51">
         <v>-1.5</v>
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
-        <v>-0.6333333333333333</v>
+        <v>-0.59000000000000008</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -10220,15 +10102,15 @@
       <c r="I54">
         <v>-2.5</v>
       </c>
-      <c r="J54" t="s">
-        <v>223</v>
+      <c r="J54">
+        <v>-2.7</v>
       </c>
       <c r="K54">
         <v>-3</v>
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>-2.0088888888888885</v>
+        <v>-2.0780000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -10298,15 +10180,15 @@
       <c r="I56">
         <v>-1</v>
       </c>
-      <c r="J56" t="s">
-        <v>224</v>
+      <c r="J56">
+        <v>-0.9</v>
       </c>
       <c r="K56">
         <v>-2.5</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>-1.1900000000000002</v>
+        <v>-1.161</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -10376,15 +10258,15 @@
       <c r="I58">
         <v>1.5</v>
       </c>
-      <c r="J58" t="s">
-        <v>217</v>
+      <c r="J58">
+        <v>-1.9</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>0.8933333333333332</v>
+        <v>0.61399999999999988</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -10532,15 +10414,15 @@
       <c r="I62">
         <v>-2</v>
       </c>
-      <c r="J62" t="s">
-        <v>205</v>
+      <c r="J62">
+        <v>-1</v>
       </c>
       <c r="K62">
         <v>-1.5</v>
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>-1.2877777777777777</v>
+        <v>-1.2589999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,7 +10449,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -10600,7 +10482,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -12960,7 +12842,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -12993,7 +12875,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -13016,13 +12898,13 @@
         <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H5" t="s">
         <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J5" t="s">
         <v>152</v>
@@ -15361,7 +15243,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -16472,27 +16354,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -16509,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -16533,7 +16415,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -16557,7 +16439,7 @@
         <v>-2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F6" s="2">
         <v>-2.5</v>
@@ -16581,7 +16463,7 @@
         <v>-1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F7" s="2">
         <v>-2</v>
@@ -16605,7 +16487,7 @@
         <v>-2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F8" s="2">
         <v>-1.5</v>
@@ -16629,7 +16511,7 @@
         <v>-2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F9" s="2">
         <v>-2.7</v>
@@ -16653,7 +16535,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -16677,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F11" s="2">
         <v>1.5</v>
@@ -16701,7 +16583,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -16725,7 +16607,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F13" s="2">
         <v>2.7</v>
@@ -16749,7 +16631,7 @@
         <v>-1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F14" s="2">
         <v>-1.8</v>
@@ -16773,7 +16655,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -16797,7 +16679,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F16" s="2">
         <v>3</v>
@@ -16821,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="F17" s="2">
         <v>1.5</v>
@@ -16845,7 +16727,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
@@ -16869,7 +16751,7 @@
         <v>-1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="F19" s="2">
         <v>-0.5</v>
@@ -16893,7 +16775,7 @@
         <v>-2</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F20" s="2">
         <v>-1.5</v>
@@ -16917,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F21" s="2">
         <v>1.8</v>
@@ -16941,7 +16823,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="F22" s="2">
         <v>2.5</v>
@@ -16965,7 +16847,7 @@
         <v>-1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="F23" s="2">
         <v>-0.5</v>
@@ -16989,7 +16871,7 @@
         <v>-1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F24" s="2">
         <v>-1.8</v>
@@ -17013,7 +16895,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -17037,7 +16919,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -17061,7 +16943,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F27" s="2">
         <v>3</v>
@@ -17085,7 +16967,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
@@ -17109,7 +16991,7 @@
         <v>-2</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F29" s="2">
         <v>-2.5</v>
@@ -17133,7 +17015,7 @@
         <v>-3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F30" s="2">
         <v>-3</v>
@@ -17157,7 +17039,7 @@
         <v>-2</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F31" s="2">
         <v>-2.2000000000000002</v>
@@ -17181,7 +17063,7 @@
         <v>-2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F32" s="2">
         <v>-2</v>
@@ -17205,7 +17087,7 @@
         <v>-1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="F33" s="2">
         <v>-0.8</v>
@@ -17229,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -17253,7 +17135,7 @@
         <v>-1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F35" s="2">
         <v>-1</v>
@@ -17277,7 +17159,7 @@
         <v>-1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F36" s="2">
         <v>-1</v>
@@ -17301,7 +17183,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F37" s="2">
         <v>1.8</v>
@@ -17325,7 +17207,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F38" s="2">
         <v>2.8</v>
@@ -17349,7 +17231,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F39" s="2">
         <v>2.5</v>
@@ -17373,7 +17255,7 @@
         <v>-1</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F40" s="2">
         <v>-0.5</v>
@@ -17397,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F41" s="2">
         <v>1.5</v>
@@ -17421,7 +17303,7 @@
         <v>-2</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F42" s="2">
         <v>-2.8</v>
@@ -17445,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F43" s="2">
         <v>1.8</v>
@@ -17469,7 +17351,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F44" s="2">
         <v>2.6</v>
@@ -17493,7 +17375,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F45" s="2">
         <v>2.9</v>
@@ -17517,7 +17399,7 @@
         <v>-3</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F46" s="2">
         <v>-3</v>
@@ -17541,7 +17423,7 @@
         <v>-2</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F47" s="2">
         <v>-2.5</v>
@@ -17565,7 +17447,7 @@
         <v>-1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F48" s="2">
         <v>-1.5</v>
@@ -17589,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -17613,7 +17495,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
@@ -17637,7 +17519,7 @@
         <v>-3</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F51" s="2">
         <v>-3</v>
@@ -17661,7 +17543,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F52" s="2">
         <v>1.8</v>
@@ -17685,7 +17567,7 @@
         <v>-2</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F53" s="2">
         <v>-1.8</v>
@@ -17709,7 +17591,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F54" s="2">
         <v>3</v>
@@ -17733,7 +17615,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F55" s="2">
         <v>2.5</v>
@@ -17757,7 +17639,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F56" s="2">
         <v>2.9</v>
@@ -17781,7 +17663,7 @@
         <v>-1</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F57" s="2">
         <v>-1.5</v>
@@ -17805,7 +17687,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F58" s="2">
         <v>2.2000000000000002</v>
@@ -17829,7 +17711,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F59" s="2">
         <v>2.8</v>
@@ -17853,7 +17735,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F60" s="2">
         <v>3</v>
@@ -17877,7 +17759,7 @@
         <v>-1</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F61" s="2">
         <v>-1.5</v>
@@ -17901,7 +17783,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="F62" s="2">
         <v>2.9</v>
@@ -17951,27 +17833,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -18027,16 +17909,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2">
         <v>-2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F6" s="2">
         <v>-2</v>
@@ -18051,16 +17933,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D7" s="2">
         <v>-1.5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="F7" s="2">
         <v>-2</v>
@@ -18075,16 +17957,16 @@
         <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D8" s="2">
         <v>-1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F8" s="2">
         <v>-1</v>
@@ -18099,16 +17981,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D9" s="2">
         <v>-2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="F9" s="2">
         <v>-2</v>
@@ -18219,16 +18101,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D14" s="2">
         <v>-1.5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F14" s="2">
         <v>-1</v>
@@ -18339,16 +18221,16 @@
         <v>134</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F19" s="2">
         <v>-1</v>
@@ -18363,16 +18245,16 @@
         <v>64</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D20" s="2">
         <v>-2</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F20" s="2">
         <v>-2</v>
@@ -18435,16 +18317,16 @@
         <v>90</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="F23" s="2">
         <v>-1</v>
@@ -18459,16 +18341,16 @@
         <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D24" s="2">
         <v>-1.5</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="F24" s="2">
         <v>-1</v>
@@ -18579,16 +18461,16 @@
         <v>70</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2">
         <v>-1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F29" s="2">
         <v>-2</v>
@@ -18603,16 +18485,16 @@
         <v>168</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2">
         <v>-3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F30" s="2">
         <v>-3</v>
@@ -18627,16 +18509,16 @@
         <v>131</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D31" s="2">
         <v>-2.5</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F31" s="2">
         <v>-2</v>
@@ -18651,16 +18533,16 @@
         <v>140</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D32" s="2">
         <v>-2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="F32" s="2">
         <v>-2</v>
@@ -18675,16 +18557,16 @@
         <v>164</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2">
         <v>-1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="F33" s="2">
         <v>-1</v>
@@ -18723,16 +18605,16 @@
         <v>39</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D35" s="2">
         <v>-1.5</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="F35" s="2">
         <v>-1</v>
@@ -18747,16 +18629,16 @@
         <v>165</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D36" s="2">
         <v>-1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="F36" s="2">
         <v>-1</v>
@@ -18843,16 +18725,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D40" s="2">
         <v>-1.5</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="F40" s="2">
         <v>-1</v>
@@ -18891,16 +18773,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D42" s="2">
         <v>-2.5</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="F42" s="2">
         <v>-2</v>
@@ -18987,16 +18869,16 @@
         <v>163</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D46" s="2">
         <v>-3</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F46" s="2">
         <v>-3</v>
@@ -19011,16 +18893,16 @@
         <v>166</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D47" s="2">
         <v>-2</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="F47" s="2">
         <v>-2</v>
@@ -19035,16 +18917,16 @@
         <v>52</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F48" s="2">
         <v>-1</v>
@@ -19107,16 +18989,16 @@
         <v>169</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D51" s="2">
         <v>-3</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F51" s="2">
         <v>-3</v>
@@ -19155,16 +19037,16 @@
         <v>46</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D53" s="2">
         <v>-1.5</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="F53" s="2">
         <v>-1</v>
@@ -19251,16 +19133,16 @@
         <v>22</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D57" s="2">
         <v>-1.5</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F57" s="2">
         <v>-1</v>
@@ -19347,16 +19229,16 @@
         <v>33</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D61" s="2">
         <v>-1.5</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F61" s="2">
         <v>-1</v>
@@ -19422,27 +19304,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">

--- a/occupations.xlsx
+++ b/occupations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C9FE7-9081-4D08-B493-024B7F6163EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E147C2D-36B2-4A22-A7DB-1C4F0C826410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7230" yWindow="-16297" windowWidth="28995" windowHeight="15675" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="occupations" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="248">
   <si>
     <t>#</t>
   </si>
@@ -272,9 +272,6 @@
     <t>takarító</t>
   </si>
   <si>
-    <t>HR specialist</t>
-  </si>
-  <si>
     <t>HR-es</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t>保姆</t>
   </si>
   <si>
-    <t>domestic helper</t>
-  </si>
-  <si>
     <t>幼师</t>
   </si>
   <si>
@@ -783,6 +777,15 @@
   </si>
   <si>
     <t>#_zh</t>
+  </si>
+  <si>
+    <t>dadus</t>
+  </si>
+  <si>
+    <t>nanny</t>
+  </si>
+  <si>
+    <t>HR personnel</t>
   </si>
 </sst>
 </file>
@@ -869,9 +872,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -952,6 +952,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -981,23 +984,23 @@
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{251A4E38-76BB-451A-BA7D-3427A9C0D56D}" name="#" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{6B32F176-CF68-44D0-87E3-68F21AE081E4}" name="#_zh" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{A874A889-7532-45D4-B042-5A57A6832C05}" name="r" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{6B32F176-CF68-44D0-87E3-68F21AE081E4}" name="#_zh" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{A874A889-7532-45D4-B042-5A57A6832C05}" name="r" dataDxfId="14">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A494C8E6-F914-428C-8272-43E167056E6E}" name="zh" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{B6C225BB-012E-4E5D-8791-79BFB3F1F024}" name="att_zh" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{29B59C04-5351-478E-936E-4FF56FD3C386}" name="en" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{1B4C41A2-3CB1-4152-B81F-485D7760D63F}" name="hu" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{B3E6153A-FA67-4701-B55F-729757CDEB41}" name="att_hu" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{5D26EFD2-BF07-4806-8FBB-9F219CC0741B}" name="chatgpt_hu" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{4A32F8C1-359D-4C9E-8195-02A92870A71F}" name="copilot_hu" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{F1FF7BC1-AC09-41A0-800C-522EDB48326B}" name="deepseek_hu" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{F30252C1-B7F3-463E-8FA4-511299C5F348}" name="gemini_hu" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{9ABFFE5E-A61F-4A56-9BD3-5CB3EAEDAC22}" name="chatgpt_zh" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{18983B9A-B075-414F-8D87-3F5A25C293D4}" name="copilot_zh" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{A39B0E6C-C60A-405D-9049-F1F4B921C73F}" name="deepseek_zh" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{09D3EAFF-C9B4-4CCD-803F-7FC1828A805E}" name="gemini_zh" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A494C8E6-F914-428C-8272-43E167056E6E}" name="zh" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B6C225BB-012E-4E5D-8791-79BFB3F1F024}" name="att_zh" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{29B59C04-5351-478E-936E-4FF56FD3C386}" name="en" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1B4C41A2-3CB1-4152-B81F-485D7760D63F}" name="hu" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B3E6153A-FA67-4701-B55F-729757CDEB41}" name="att_hu" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5D26EFD2-BF07-4806-8FBB-9F219CC0741B}" name="chatgpt_hu" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{4A32F8C1-359D-4C9E-8195-02A92870A71F}" name="copilot_hu" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{F1FF7BC1-AC09-41A0-800C-522EDB48326B}" name="deepseek_hu" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{F30252C1-B7F3-463E-8FA4-511299C5F348}" name="gemini_hu" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{9ABFFE5E-A61F-4A56-9BD3-5CB3EAEDAC22}" name="chatgpt_zh" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{18983B9A-B075-414F-8D87-3F5A25C293D4}" name="copilot_zh" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{A39B0E6C-C60A-405D-9049-F1F4B921C73F}" name="deepseek_zh" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{09D3EAFF-C9B4-4CCD-803F-7FC1828A805E}" name="gemini_zh" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1327,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1357,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1375,31 +1378,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1407,14 +1410,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.12064366596922971</v>
+        <f t="shared" ref="C2:C33" ca="1" si="0">RAND()</f>
+        <v>0.4472396074180488</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1423,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I2" s="7">
         <v>1.8810000000000002</v>
@@ -1455,14 +1458,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.55788656914202894</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17251660096474775</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1471,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I3" s="7">
         <v>-2.0088888888888885</v>
@@ -1503,14 +1506,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.18015329693866866</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37911996632555545</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1519,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I4" s="7">
         <v>-1.0744444444444445</v>
@@ -1551,14 +1554,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.44547230166488172</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35212548268218813</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1567,7 +1570,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7">
         <v>-1.2877777777777777</v>
@@ -1599,14 +1602,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.81455328492748358</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75650774207180538</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1615,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I6" s="7">
         <v>-0.48777777777777787</v>
@@ -1647,14 +1650,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <f ca="1">RAND()</f>
-        <v>3.9476236234702422E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27401687829665522</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -1663,7 +1666,7 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I7" s="7">
         <v>2.9409999999999998</v>
@@ -1695,14 +1698,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.12236971855148093</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70252044203778352</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1711,7 +1714,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I8" s="7">
         <v>-0.46777777777777779</v>
@@ -1743,14 +1746,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.86948201053684138</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7071846567712221E-2</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -1759,7 +1762,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7">
         <v>2.9050000000000002</v>
@@ -1791,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.67071633415576337</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52791185916891348</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -1807,7 +1810,7 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I10" s="7">
         <v>0.63700000000000001</v>
@@ -1839,14 +1842,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="5">
-        <f ca="1">RAND()</f>
-        <v>3.4941256378815067E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64510943257872411</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
@@ -1855,7 +1858,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I11" s="7">
         <v>1.1488888888888888</v>
@@ -1887,14 +1890,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.9560397785538397</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62153068678801249</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -1903,7 +1906,7 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I12" s="7">
         <v>-0.8633333333333334</v>
@@ -1935,14 +1938,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.98346584554441585</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0479719960745415E-2</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -1951,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I13" s="7">
         <v>-0.55888888888888888</v>
@@ -1983,14 +1986,14 @@
         <v>13</v>
       </c>
       <c r="C14" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.49106130402538306</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88963777832667446</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
         <v>40</v>
@@ -1999,7 +2002,7 @@
         <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
         <v>-0.56000000000000005</v>
@@ -2031,14 +2034,14 @@
         <v>14</v>
       </c>
       <c r="C15" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.13192014479481418</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65554402698924741</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2047,7 +2050,7 @@
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I15" s="7">
         <v>0.85699999999999998</v>
@@ -2079,14 +2082,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.45447115981150177</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56989842190432694</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -2095,7 +2098,7 @@
         <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I16" s="7">
         <v>1.5749999999999997</v>
@@ -2127,14 +2130,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.26139855229369779</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41709176567342143</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
         <v>47</v>
@@ -2143,7 +2146,7 @@
         <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I17" s="7">
         <v>-0.7977777777777777</v>
@@ -2175,14 +2178,14 @@
         <v>17</v>
       </c>
       <c r="C18" s="5">
-        <f ca="1">RAND()</f>
-        <v>1.0226950458321893E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65505998985695568</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
@@ -2191,7 +2194,7 @@
         <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I18" s="7">
         <v>-1.1800000000000002</v>
@@ -2223,14 +2226,14 @@
         <v>18</v>
       </c>
       <c r="C19" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.57269746731043303</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80269463863064694</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
@@ -2239,7 +2242,7 @@
         <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I19" s="7">
         <v>-1.3522222222222222</v>
@@ -2271,14 +2274,14 @@
         <v>19</v>
       </c>
       <c r="C20" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.99796387325315417</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55249279832729925</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
@@ -2287,7 +2290,7 @@
         <v>57</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I20" s="7">
         <v>2.9910000000000001</v>
@@ -2319,14 +2322,14 @@
         <v>20</v>
       </c>
       <c r="C21" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.10361457934677243</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23611360101997902</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -2335,7 +2338,7 @@
         <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I21" s="7">
         <v>0.84099999999999997</v>
@@ -2367,14 +2370,14 @@
         <v>21</v>
       </c>
       <c r="C22" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.27814167990474714</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68643817490106707</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
         <v>62</v>
@@ -2383,7 +2386,7 @@
         <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I22" s="7">
         <v>-1.9677777777777778</v>
@@ -2415,14 +2418,14 @@
         <v>22</v>
       </c>
       <c r="C23" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.11804086649955303</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7065659468841694</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
         <v>65</v>
@@ -2431,7 +2434,7 @@
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I23" s="7">
         <v>-1.298888888888889</v>
@@ -2463,14 +2466,14 @@
         <v>23</v>
       </c>
       <c r="C24" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.73651297907509716</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82609432855074416</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
         <v>68</v>
@@ -2479,7 +2482,7 @@
         <v>69</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I24" s="7">
         <v>2.8869999999999996</v>
@@ -2511,14 +2514,14 @@
         <v>24</v>
       </c>
       <c r="C25" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.8568902527680301</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79123275148923644</v>
       </c>
       <c r="D25" t="s">
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
         <v>71</v>
@@ -2527,7 +2530,7 @@
         <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I25" s="7">
         <v>-0.8833333333333333</v>
@@ -2559,14 +2562,14 @@
         <v>25</v>
       </c>
       <c r="C26" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.74508416706497582</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43766512665580215</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
         <v>74</v>
@@ -2575,7 +2578,7 @@
         <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I26" s="7">
         <v>1.5550000000000002</v>
@@ -2607,23 +2610,23 @@
         <v>26</v>
       </c>
       <c r="C27" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.46853052951782814</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1517908466435387</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
         <v>76</v>
       </c>
-      <c r="G27" t="s">
-        <v>77</v>
-      </c>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I27" s="7">
         <v>1.1629999999999998</v>
@@ -2655,23 +2658,23 @@
         <v>27</v>
       </c>
       <c r="C28" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.74737412856223939</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93873173713721347</v>
       </c>
       <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" t="s">
         <v>78</v>
       </c>
-      <c r="E28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>79</v>
       </c>
-      <c r="G28" t="s">
-        <v>80</v>
-      </c>
       <c r="H28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I28" s="7">
         <v>0.8933333333333332</v>
@@ -2703,23 +2706,23 @@
         <v>28</v>
       </c>
       <c r="C29" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.58760968162307692</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5406076026100139E-2</v>
       </c>
       <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" t="s">
         <v>81</v>
       </c>
-      <c r="E29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>82</v>
       </c>
-      <c r="G29" t="s">
-        <v>83</v>
-      </c>
       <c r="H29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I29" s="7">
         <v>1.675</v>
@@ -2751,23 +2754,23 @@
         <v>29</v>
       </c>
       <c r="C30" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.49947826919431981</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14561281953058136</v>
       </c>
       <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" t="s">
         <v>84</v>
       </c>
-      <c r="E30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>85</v>
       </c>
-      <c r="G30" t="s">
-        <v>86</v>
-      </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I30" s="7">
         <v>-1.1900000000000002</v>
@@ -2799,23 +2802,23 @@
         <v>30</v>
       </c>
       <c r="C31" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.70139618298952444</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0561881505873401E-2</v>
       </c>
       <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="H31" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I31" s="7">
         <v>2.9829999999999997</v>
@@ -2847,23 +2850,23 @@
         <v>31</v>
       </c>
       <c r="C32" s="5">
-        <f ca="1">RAND()</f>
-        <v>7.8912827585414957E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62335947589067287</v>
       </c>
       <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" t="s">
         <v>90</v>
       </c>
-      <c r="E32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>91</v>
       </c>
-      <c r="G32" t="s">
-        <v>92</v>
-      </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I32" s="7">
         <v>-0.23399999999999999</v>
@@ -2895,23 +2898,23 @@
         <v>32</v>
       </c>
       <c r="C33" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.75694245125191917</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43749726708948744</v>
       </c>
       <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" t="s">
         <v>93</v>
       </c>
-      <c r="E33" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>94</v>
       </c>
-      <c r="G33" t="s">
-        <v>95</v>
-      </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I33" s="7">
         <v>1.911</v>
@@ -2943,23 +2946,23 @@
         <v>33</v>
       </c>
       <c r="C34" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.46534554866883127</v>
+        <f t="shared" ref="C34:C60" ca="1" si="1">RAND()</f>
+        <v>0.26182066227266354</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" t="s">
         <v>96</v>
       </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
       <c r="H34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I34" s="7">
         <v>-1.27</v>
@@ -2991,23 +2994,23 @@
         <v>34</v>
       </c>
       <c r="C35" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.33053036707904715</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74215186886743378</v>
       </c>
       <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" t="s">
         <v>98</v>
       </c>
-      <c r="E35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="H35" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I35" s="7">
         <v>2.9940000000000002</v>
@@ -3039,23 +3042,23 @@
         <v>35</v>
       </c>
       <c r="C36" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.24441901505471786</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17077201272587084</v>
       </c>
       <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" t="s">
         <v>101</v>
       </c>
-      <c r="E36" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" t="s">
-        <v>102</v>
-      </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I36" s="7">
         <v>1.6600000000000001</v>
@@ -3087,23 +3090,23 @@
         <v>36</v>
       </c>
       <c r="C37" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.21389363731746036</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12303208166575474</v>
       </c>
       <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" t="s">
         <v>103</v>
       </c>
-      <c r="E37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>104</v>
       </c>
-      <c r="G37" t="s">
-        <v>105</v>
-      </c>
       <c r="H37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I37" s="7">
         <v>0.97800000000000009</v>
@@ -3135,23 +3138,23 @@
         <v>37</v>
       </c>
       <c r="C38" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.28676725940584136</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2319048528489821</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" t="s">
         <v>106</v>
       </c>
-      <c r="G38" t="s">
-        <v>107</v>
-      </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I38" s="7">
         <v>-0.6333333333333333</v>
@@ -3183,23 +3186,23 @@
         <v>38</v>
       </c>
       <c r="C39" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.10469968980424815</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74288523024580466</v>
       </c>
       <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" t="s">
         <v>108</v>
       </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>109</v>
       </c>
-      <c r="G39" t="s">
-        <v>110</v>
-      </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I39" s="7">
         <v>-0.63444444444444448</v>
@@ -3231,23 +3234,23 @@
         <v>39</v>
       </c>
       <c r="C40" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.6944298078524187</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.53205532974382E-2</v>
       </c>
       <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" t="s">
         <v>111</v>
       </c>
-      <c r="E40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>112</v>
       </c>
-      <c r="G40" t="s">
-        <v>113</v>
-      </c>
       <c r="H40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I40" s="7">
         <v>0.94799999999999984</v>
@@ -3279,23 +3282,23 @@
         <v>40</v>
       </c>
       <c r="C41" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.74164438474305483</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70671947156756165</v>
       </c>
       <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" t="s">
         <v>114</v>
       </c>
-      <c r="E41" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>115</v>
       </c>
-      <c r="G41" t="s">
-        <v>116</v>
-      </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I41" s="7">
         <v>1.3339999999999999</v>
@@ -3327,23 +3330,23 @@
         <v>41</v>
       </c>
       <c r="C42" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.41404330094358344</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84775071973478255</v>
       </c>
       <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" t="s">
         <v>117</v>
       </c>
-      <c r="E42" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>118</v>
       </c>
-      <c r="G42" t="s">
-        <v>119</v>
-      </c>
       <c r="H42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I42" s="7">
         <v>0.38400000000000001</v>
@@ -3375,23 +3378,23 @@
         <v>42</v>
       </c>
       <c r="C43" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.16794094782463453</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52437464834939995</v>
       </c>
       <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" t="s">
         <v>120</v>
       </c>
-      <c r="E43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>121</v>
       </c>
-      <c r="G43" t="s">
-        <v>122</v>
-      </c>
       <c r="H43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I43" s="7">
         <v>-1.4144444444444444</v>
@@ -3423,23 +3426,23 @@
         <v>43</v>
       </c>
       <c r="C44" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.3384285555612454</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47547889047598713</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" t="s">
         <v>123</v>
       </c>
-      <c r="G44" t="s">
-        <v>124</v>
-      </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I44" s="7">
         <v>-1.4055555555555554</v>
@@ -3471,23 +3474,23 @@
         <v>44</v>
       </c>
       <c r="C45" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.82251524418267841</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45875628424497183</v>
       </c>
       <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" t="s">
         <v>125</v>
       </c>
-      <c r="E45" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="H45" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I45" s="7">
         <v>2.9940000000000002</v>
@@ -3519,23 +3522,23 @@
         <v>45</v>
       </c>
       <c r="C46" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.61225564840865165</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92699259209529095</v>
       </c>
       <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" t="s">
         <v>128</v>
       </c>
-      <c r="E46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>129</v>
       </c>
-      <c r="G46" t="s">
-        <v>130</v>
-      </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I46" s="7">
         <v>1.4630000000000001</v>
@@ -3567,23 +3570,23 @@
         <v>46</v>
       </c>
       <c r="C47" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.6103328730924853</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50025094082117849</v>
       </c>
       <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" t="s">
         <v>131</v>
       </c>
-      <c r="E47" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>132</v>
       </c>
-      <c r="G47" t="s">
-        <v>133</v>
-      </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I47" s="7">
         <v>-1.54</v>
@@ -3615,23 +3618,23 @@
         <v>47</v>
       </c>
       <c r="C48" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.60164504410322583</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85708891766760165</v>
       </c>
       <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" t="s">
         <v>134</v>
       </c>
-      <c r="E48" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>135</v>
       </c>
-      <c r="G48" t="s">
-        <v>136</v>
-      </c>
       <c r="H48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I48" s="7">
         <v>-0.28555555555555556</v>
@@ -3663,23 +3666,23 @@
         <v>48</v>
       </c>
       <c r="C49" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.15496077958555576</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10336925544201725</v>
       </c>
       <c r="D49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" t="s">
         <v>137</v>
       </c>
-      <c r="E49" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>138</v>
       </c>
-      <c r="G49" t="s">
-        <v>139</v>
-      </c>
       <c r="H49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I49" s="7">
         <v>2.6079999999999997</v>
@@ -3711,23 +3714,23 @@
         <v>49</v>
       </c>
       <c r="C50" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.72159581293462038</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83719890716946388</v>
       </c>
       <c r="D50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" t="s">
         <v>140</v>
       </c>
-      <c r="E50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>141</v>
       </c>
-      <c r="G50" t="s">
-        <v>142</v>
-      </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I50" s="7">
         <v>-1.2244444444444444</v>
@@ -3759,23 +3762,23 @@
         <v>50</v>
       </c>
       <c r="C51" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.15186220733216904</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13543849135607011</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" t="s">
         <v>143</v>
       </c>
-      <c r="G51" t="s">
-        <v>144</v>
-      </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I51" s="7">
         <v>0.01</v>
@@ -3806,23 +3809,23 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.60757071783791472</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52654585512024232</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="H52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I52" s="7">
         <v>1.7810000000000001</v>
@@ -3853,23 +3856,23 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.68038452818854112</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53438286003411584</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" t="s">
         <v>179</v>
-      </c>
-      <c r="F53" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" t="s">
-        <v>183</v>
-      </c>
-      <c r="H53" t="s">
-        <v>181</v>
       </c>
       <c r="I53" s="7">
         <v>3</v>
@@ -3900,23 +3903,23 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5">
-        <f ca="1">RAND()</f>
-        <v>8.2989694786925083E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52912159891597699</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
+        <v>186</v>
+      </c>
+      <c r="H54" t="s">
         <v>179</v>
-      </c>
-      <c r="F54" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" t="s">
-        <v>188</v>
-      </c>
-      <c r="H54" t="s">
-        <v>181</v>
       </c>
       <c r="I54" s="7">
         <v>2.8220000000000001</v>
@@ -3947,23 +3950,23 @@
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.90225452700346154</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18888435295014006</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" t="s">
         <v>179</v>
-      </c>
-      <c r="F55" t="s">
-        <v>172</v>
-      </c>
-      <c r="G55" t="s">
-        <v>189</v>
-      </c>
-      <c r="H55" t="s">
-        <v>181</v>
       </c>
       <c r="I55" s="7">
         <v>2.8609999999999998</v>
@@ -3994,23 +3997,23 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.40375877722679676</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38967974026468544</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" t="s">
         <v>179</v>
-      </c>
-      <c r="F56" t="s">
-        <v>186</v>
-      </c>
-      <c r="G56" t="s">
-        <v>191</v>
-      </c>
-      <c r="H56" t="s">
-        <v>181</v>
       </c>
       <c r="I56" s="7">
         <v>-2.6111111111111112</v>
@@ -4041,23 +4044,23 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.6675688068028508</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49380845178326338</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I57" s="7">
         <v>2.9609999999999999</v>
@@ -4088,23 +4091,23 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.60882514824811029</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3588345111589416</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H58" t="s">
         <v>179</v>
-      </c>
-      <c r="F58" t="s">
-        <v>171</v>
-      </c>
-      <c r="G58" t="s">
-        <v>184</v>
-      </c>
-      <c r="H58" t="s">
-        <v>181</v>
       </c>
       <c r="I58" s="7">
         <v>-3</v>
@@ -4135,23 +4138,23 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.33125237843672872</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90012811520245861</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" t="s">
         <v>179</v>
-      </c>
-      <c r="F59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59" t="s">
-        <v>190</v>
-      </c>
-      <c r="H59" t="s">
-        <v>181</v>
       </c>
       <c r="I59" s="7">
         <v>-2.8288888888888888</v>
@@ -4182,23 +4185,23 @@
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.37881793587797652</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45641169686427174</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I60" s="7">
         <v>2.569</v>
@@ -4228,7 +4231,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4250,7 +4253,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4268,32 +4271,32 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4317,7 +4320,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4389,7 +4392,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -4437,7 +4440,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -4461,7 +4464,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4485,7 +4488,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -4509,7 +4512,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -4557,7 +4560,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4581,7 +4584,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4629,7 +4632,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -4653,7 +4656,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -4701,7 +4704,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4725,7 +4728,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -4749,7 +4752,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4797,7 +4800,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -4821,7 +4824,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4845,7 +4848,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -4917,7 +4920,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30">
         <v>-3</v>
@@ -4941,7 +4944,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <v>-2</v>
@@ -4965,7 +4968,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32">
         <v>-1</v>
@@ -4989,7 +4992,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36">
         <v>-1</v>
@@ -5109,7 +5112,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5133,7 +5136,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5181,7 +5184,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5229,7 +5232,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5301,7 +5304,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B46">
         <v>-3</v>
@@ -5325,7 +5328,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47">
         <v>-2</v>
@@ -5373,7 +5376,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5421,7 +5424,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51">
         <v>-3</v>
@@ -5445,7 +5448,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5493,7 +5496,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -5517,7 +5520,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -5589,7 +5592,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5685,7 +5688,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -5709,7 +5712,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5734,7 +5737,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5767,7 +5770,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -5811,7 +5814,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>-2.11</v>
@@ -5928,7 +5931,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5967,7 +5970,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>1.78</v>
@@ -6006,7 +6009,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>2.65</v>
@@ -6045,7 +6048,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -6084,7 +6087,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <v>-1.89</v>
@@ -6162,7 +6165,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>-0.56000000000000005</v>
@@ -6240,7 +6243,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>-2.21</v>
@@ -6279,7 +6282,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6318,7 +6321,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -6396,7 +6399,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>1.94</v>
@@ -6435,7 +6438,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>1.67</v>
@@ -6474,7 +6477,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -6513,7 +6516,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24">
         <v>2.4500000000000002</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -6747,7 +6750,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <v>-3</v>
@@ -6825,7 +6828,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32">
         <v>-2.4500000000000002</v>
@@ -6942,7 +6945,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B35">
         <v>-3</v>
@@ -7020,7 +7023,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B37">
         <v>1.89</v>
@@ -7059,7 +7062,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38">
         <v>-2.67</v>
@@ -7098,7 +7101,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B39">
         <v>-3</v>
@@ -7137,7 +7140,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40">
         <v>-2.41</v>
@@ -7371,7 +7374,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B46">
         <v>-3</v>
@@ -7410,7 +7413,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47">
         <v>0.65</v>
@@ -7605,7 +7608,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>-1.34</v>
@@ -7644,7 +7647,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -7683,7 +7686,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54">
         <v>0.78</v>
@@ -7761,7 +7764,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56">
         <v>0.45</v>
@@ -7800,7 +7803,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57">
         <v>-2.21</v>
@@ -7839,7 +7842,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -7878,7 +7881,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>1.1200000000000001</v>
@@ -7917,7 +7920,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60">
         <v>1.98</v>
@@ -7956,7 +7959,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B61">
         <v>2.78</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62">
         <v>1.89</v>
@@ -8088,7 +8091,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -8121,7 +8124,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8165,7 +8168,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>2.7</v>
@@ -8282,7 +8285,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -8321,7 +8324,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9">
         <v>1.45</v>
@@ -8360,7 +8363,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>2.8</v>
@@ -8399,7 +8402,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -8438,7 +8441,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -8516,7 +8519,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>0.6</v>
@@ -8594,7 +8597,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>2.1</v>
@@ -8633,7 +8636,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8672,7 +8675,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -8750,7 +8753,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <v>1.5</v>
@@ -8789,7 +8792,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>2.0499999999999998</v>
@@ -8828,7 +8831,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -8867,7 +8870,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23">
         <v>1.5</v>
@@ -8945,7 +8948,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -9101,7 +9104,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>2.5</v>
@@ -9179,7 +9182,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31">
         <v>2.7</v>
@@ -9296,7 +9299,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B34">
         <v>-3</v>
@@ -9374,7 +9377,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -9413,7 +9416,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B38">
         <v>-3</v>
@@ -9491,7 +9494,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39">
         <v>2.4500000000000002</v>
@@ -9725,7 +9728,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B45">
         <v>-3</v>
@@ -9764,7 +9767,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46">
         <v>1.52</v>
@@ -9959,7 +9962,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>2.02</v>
@@ -9998,7 +10001,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -10037,7 +10040,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53">
         <v>0.55000000000000004</v>
@@ -10115,7 +10118,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55">
         <v>1.25</v>
@@ -10154,7 +10157,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56">
         <v>-1.1499999999999999</v>
@@ -10193,7 +10196,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -10232,7 +10235,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>2.5</v>
@@ -10271,7 +10274,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -10310,7 +10313,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60">
         <v>2.75</v>
@@ -10349,7 +10352,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>2.6</v>
@@ -10449,7 +10452,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -10482,42 +10485,42 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -10561,7 +10564,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>-2.9</v>
@@ -10678,7 +10681,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>2.9</v>
@@ -10717,7 +10720,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>1.8</v>
@@ -10756,7 +10759,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9">
         <v>2.6</v>
@@ -10795,7 +10798,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -10834,7 +10837,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>-0.3</v>
@@ -10912,7 +10915,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>-0.4</v>
@@ -10990,7 +10993,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>-1.4</v>
@@ -11029,7 +11032,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -11068,7 +11071,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17">
         <v>2.95</v>
@@ -11146,7 +11149,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>1.9</v>
@@ -11185,7 +11188,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11224,7 +11227,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -11263,7 +11266,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>1.5</v>
@@ -11341,7 +11344,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -11497,7 +11500,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>-0.5</v>
@@ -11575,7 +11578,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30">
         <v>-1.8</v>
@@ -11692,7 +11695,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B33">
         <v>-3</v>
@@ -11770,7 +11773,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B35">
         <v>2.2999999999999998</v>
@@ -11809,7 +11812,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36">
         <v>-2.8</v>
@@ -11848,7 +11851,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B37">
         <v>-3</v>
@@ -11887,7 +11890,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38">
         <v>-1.5</v>
@@ -12121,7 +12124,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44">
         <v>-1.7</v>
@@ -12160,7 +12163,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <v>1.6</v>
@@ -12355,7 +12358,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50">
         <v>-0.5</v>
@@ -12394,7 +12397,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B51">
         <v>2.2999999999999998</v>
@@ -12433,7 +12436,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>0.9</v>
@@ -12511,7 +12514,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54">
         <v>1.3</v>
@@ -12550,7 +12553,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55">
         <v>-0.6</v>
@@ -12589,7 +12592,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56">
         <v>2.95</v>
@@ -12628,7 +12631,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>-1.8</v>
@@ -12667,7 +12670,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58">
         <v>1.2</v>
@@ -12706,7 +12709,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59">
         <v>2.2000000000000002</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>0.6</v>
@@ -12842,7 +12845,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -12875,42 +12878,42 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -12954,7 +12957,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>-2.5</v>
@@ -13071,7 +13074,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -13110,7 +13113,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -13149,7 +13152,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>2.8</v>
@@ -13188,7 +13191,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -13227,7 +13230,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <v>-0.5</v>
@@ -13305,7 +13308,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13383,7 +13386,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>-2</v>
@@ -13422,7 +13425,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -13461,7 +13464,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -13539,7 +13542,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <v>1.5</v>
@@ -13578,7 +13581,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -13617,7 +13620,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -13656,7 +13659,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>2.5</v>
@@ -13734,7 +13737,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -13890,7 +13893,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>1.5</v>
@@ -13968,7 +13971,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33">
         <v>-2.5</v>
@@ -14085,7 +14088,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B36">
         <v>-3</v>
@@ -14163,7 +14166,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B38">
         <v>2.8</v>
@@ -14202,7 +14205,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39">
         <v>-1.5</v>
@@ -14241,7 +14244,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B40">
         <v>-3</v>
@@ -14280,7 +14283,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41">
         <v>-2.8</v>
@@ -14514,7 +14517,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B47">
         <v>-3</v>
@@ -14553,7 +14556,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48">
         <v>0.8</v>
@@ -14748,7 +14751,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -14787,7 +14790,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -14826,7 +14829,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -14904,7 +14907,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -14943,7 +14946,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58">
         <v>-1</v>
@@ -14982,7 +14985,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -15021,7 +15024,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60">
         <v>0.5</v>
@@ -15060,7 +15063,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>1.8</v>
@@ -15099,7 +15102,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B62">
         <v>2.5</v>
@@ -15138,7 +15141,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -15231,7 +15234,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -15243,21 +15246,21 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -15280,7 +15283,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>-2.75</v>
@@ -15334,7 +15337,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -15352,7 +15355,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>2.4</v>
@@ -15370,7 +15373,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9">
         <v>2.9</v>
@@ -15388,7 +15391,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -15406,7 +15409,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>-0.8</v>
@@ -15442,7 +15445,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>-0.5</v>
@@ -15478,7 +15481,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>-2.2000000000000002</v>
@@ -15496,7 +15499,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -15514,7 +15517,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -15550,7 +15553,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>2.2999999999999998</v>
@@ -15568,7 +15571,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>2.25</v>
@@ -15586,7 +15589,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -15604,7 +15607,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>2.1</v>
@@ -15640,7 +15643,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -15712,7 +15715,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -15748,7 +15751,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30">
         <v>-2.4</v>
@@ -15802,7 +15805,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B33">
         <v>-3</v>
@@ -15838,7 +15841,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B35">
         <v>2.7</v>
@@ -15856,7 +15859,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36">
         <v>-2.5</v>
@@ -15874,7 +15877,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B37">
         <v>-3</v>
@@ -15892,7 +15895,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38">
         <v>-2.8</v>
@@ -16000,7 +16003,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44">
         <v>-3</v>
@@ -16018,7 +16021,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <v>1.85</v>
@@ -16108,7 +16111,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50">
         <v>-1.6</v>
@@ -16126,7 +16129,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -16144,7 +16147,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>1.75</v>
@@ -16180,7 +16183,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54">
         <v>2.0499999999999998</v>
@@ -16198,7 +16201,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55">
         <v>-3</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -16234,7 +16237,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>2.65</v>
@@ -16252,7 +16255,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58">
         <v>2.85</v>
@@ -16270,7 +16273,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59">
         <v>2.95</v>
@@ -16288,7 +16291,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>2.6</v>
@@ -16354,32 +16357,32 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -16391,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -16403,7 +16406,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -16415,7 +16418,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -16439,7 +16442,7 @@
         <v>-2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F6" s="2">
         <v>-2.5</v>
@@ -16463,7 +16466,7 @@
         <v>-1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="2">
         <v>-2</v>
@@ -16475,7 +16478,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2">
         <v>-2</v>
@@ -16487,7 +16490,7 @@
         <v>-2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F8" s="2">
         <v>-1.5</v>
@@ -16511,7 +16514,7 @@
         <v>-2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F9" s="2">
         <v>-2.7</v>
@@ -16523,7 +16526,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2">
         <v>2.5</v>
@@ -16535,7 +16538,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -16547,7 +16550,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -16559,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F11" s="2">
         <v>1.5</v>
@@ -16571,7 +16574,7 @@
     </row>
     <row r="12" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -16583,7 +16586,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -16595,7 +16598,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2">
         <v>2.75</v>
@@ -16607,7 +16610,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F13" s="2">
         <v>2.7</v>
@@ -16631,7 +16634,7 @@
         <v>-1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F14" s="2">
         <v>-1.8</v>
@@ -16643,7 +16646,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -16655,7 +16658,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -16667,7 +16670,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -16679,7 +16682,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F16" s="2">
         <v>3</v>
@@ -16703,7 +16706,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F17" s="2">
         <v>1.5</v>
@@ -16715,7 +16718,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -16727,7 +16730,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
@@ -16739,7 +16742,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2">
         <v>-1</v>
@@ -16751,7 +16754,7 @@
         <v>-1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F19" s="2">
         <v>-0.5</v>
@@ -16775,7 +16778,7 @@
         <v>-2</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F20" s="2">
         <v>-1.5</v>
@@ -16787,7 +16790,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -16799,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F21" s="2">
         <v>1.8</v>
@@ -16811,7 +16814,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -16823,7 +16826,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F22" s="2">
         <v>2.5</v>
@@ -16835,7 +16838,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2">
         <v>-0.5</v>
@@ -16847,7 +16850,7 @@
         <v>-1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F23" s="2">
         <v>-0.5</v>
@@ -16871,7 +16874,7 @@
         <v>-1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F24" s="2">
         <v>-1.8</v>
@@ -16883,7 +16886,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
@@ -16895,7 +16898,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -16907,7 +16910,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -16919,7 +16922,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -16931,7 +16934,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -16943,7 +16946,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F27" s="2">
         <v>3</v>
@@ -16967,7 +16970,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
@@ -16991,7 +16994,7 @@
         <v>-2</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F29" s="2">
         <v>-2.5</v>
@@ -17003,7 +17006,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2">
         <v>-3</v>
@@ -17015,7 +17018,7 @@
         <v>-3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F30" s="2">
         <v>-3</v>
@@ -17027,7 +17030,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2">
         <v>-2</v>
@@ -17039,7 +17042,7 @@
         <v>-2</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F31" s="2">
         <v>-2.2000000000000002</v>
@@ -17051,7 +17054,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="2">
         <v>-2</v>
@@ -17063,7 +17066,7 @@
         <v>-2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F32" s="2">
         <v>-2</v>
@@ -17075,7 +17078,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B33" s="2">
         <v>-1</v>
@@ -17087,7 +17090,7 @@
         <v>-1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F33" s="2">
         <v>-0.8</v>
@@ -17111,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -17135,7 +17138,7 @@
         <v>-1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F35" s="2">
         <v>-1</v>
@@ -17147,7 +17150,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36" s="2">
         <v>-1</v>
@@ -17159,7 +17162,7 @@
         <v>-1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F36" s="2">
         <v>-1</v>
@@ -17183,7 +17186,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F37" s="2">
         <v>1.8</v>
@@ -17195,7 +17198,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B38" s="2">
         <v>2.5</v>
@@ -17207,7 +17210,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F38" s="2">
         <v>2.8</v>
@@ -17219,7 +17222,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -17231,7 +17234,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F39" s="2">
         <v>2.5</v>
@@ -17255,7 +17258,7 @@
         <v>-1</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F40" s="2">
         <v>-0.5</v>
@@ -17267,7 +17270,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2">
         <v>1.5</v>
@@ -17279,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F41" s="2">
         <v>1.5</v>
@@ -17303,7 +17306,7 @@
         <v>-2</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F42" s="2">
         <v>-2.8</v>
@@ -17315,7 +17318,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2">
         <v>1.5</v>
@@ -17327,7 +17330,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F43" s="2">
         <v>1.8</v>
@@ -17351,7 +17354,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F44" s="2">
         <v>2.6</v>
@@ -17375,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F45" s="2">
         <v>2.9</v>
@@ -17387,7 +17390,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B46" s="2">
         <v>-3</v>
@@ -17399,7 +17402,7 @@
         <v>-3</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F46" s="2">
         <v>-3</v>
@@ -17411,7 +17414,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" s="2">
         <v>-2.5</v>
@@ -17423,7 +17426,7 @@
         <v>-2</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F47" s="2">
         <v>-2.5</v>
@@ -17447,7 +17450,7 @@
         <v>-1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F48" s="2">
         <v>-1.5</v>
@@ -17459,7 +17462,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -17471,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -17495,7 +17498,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
@@ -17507,7 +17510,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51" s="2">
         <v>-3</v>
@@ -17519,7 +17522,7 @@
         <v>-3</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F51" s="2">
         <v>-3</v>
@@ -17531,7 +17534,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" s="2">
         <v>1.5</v>
@@ -17543,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F52" s="2">
         <v>1.8</v>
@@ -17567,7 +17570,7 @@
         <v>-2</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F53" s="2">
         <v>-1.8</v>
@@ -17579,7 +17582,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2">
         <v>3</v>
@@ -17591,7 +17594,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F54" s="2">
         <v>3</v>
@@ -17603,7 +17606,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2">
         <v>1.5</v>
@@ -17615,7 +17618,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F55" s="2">
         <v>2.5</v>
@@ -17639,7 +17642,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F56" s="2">
         <v>2.9</v>
@@ -17663,7 +17666,7 @@
         <v>-1</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F57" s="2">
         <v>-1.5</v>
@@ -17675,7 +17678,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2">
         <v>2.5</v>
@@ -17687,7 +17690,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F58" s="2">
         <v>2.2000000000000002</v>
@@ -17711,7 +17714,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F59" s="2">
         <v>2.8</v>
@@ -17735,7 +17738,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F60" s="2">
         <v>3</v>
@@ -17759,7 +17762,7 @@
         <v>-1</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F61" s="2">
         <v>-1.5</v>
@@ -17771,7 +17774,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" s="2">
         <v>2.5</v>
@@ -17783,7 +17786,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F62" s="2">
         <v>2.9</v>
@@ -17833,32 +17836,32 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="8">
         <v>1.5</v>
@@ -17882,7 +17885,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="8">
         <v>0.5</v>
@@ -17909,16 +17912,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2">
         <v>-2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="2">
         <v>-2</v>
@@ -17933,16 +17936,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" s="2">
         <v>-1.5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F7" s="2">
         <v>-2</v>
@@ -17954,19 +17957,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2">
         <v>-1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F8" s="2">
         <v>-1</v>
@@ -17981,16 +17984,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2">
         <v>-2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F9" s="2">
         <v>-2</v>
@@ -18002,7 +18005,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -18026,7 +18029,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="8">
         <v>1.5</v>
@@ -18050,7 +18053,7 @@
     </row>
     <row r="12" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="8">
         <v>3</v>
@@ -18074,7 +18077,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="8">
         <v>2.5</v>
@@ -18101,16 +18104,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="2">
         <v>-1.5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" s="2">
         <v>-1</v>
@@ -18122,7 +18125,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="8">
         <v>2.5</v>
@@ -18146,7 +18149,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="8">
         <v>3</v>
@@ -18194,7 +18197,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="8">
         <v>3</v>
@@ -18218,19 +18221,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F19" s="2">
         <v>-1</v>
@@ -18245,16 +18248,16 @@
         <v>64</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D20" s="2">
         <v>-2</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F20" s="2">
         <v>-2</v>
@@ -18266,7 +18269,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -18290,7 +18293,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="8">
         <v>1.5</v>
@@ -18314,19 +18317,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F23" s="2">
         <v>-1</v>
@@ -18341,16 +18344,16 @@
         <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D24" s="2">
         <v>-1.5</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F24" s="2">
         <v>-1</v>
@@ -18362,7 +18365,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="8">
         <v>3</v>
@@ -18386,7 +18389,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="8">
         <v>1.5</v>
@@ -18410,7 +18413,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="8">
         <v>3</v>
@@ -18461,16 +18464,16 @@
         <v>70</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D29" s="2">
         <v>-1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F29" s="2">
         <v>-2</v>
@@ -18482,19 +18485,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D30" s="2">
         <v>-3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F30" s="2">
         <v>-3</v>
@@ -18506,19 +18509,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2">
         <v>-2.5</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F31" s="2">
         <v>-2</v>
@@ -18530,19 +18533,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2">
         <v>-2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F32" s="2">
         <v>-2</v>
@@ -18554,19 +18557,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D33" s="2">
         <v>-1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F33" s="2">
         <v>-1</v>
@@ -18605,16 +18608,16 @@
         <v>39</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D35" s="2">
         <v>-1.5</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F35" s="2">
         <v>-1</v>
@@ -18626,19 +18629,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D36" s="2">
         <v>-1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F36" s="2">
         <v>-1</v>
@@ -18674,7 +18677,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B38" s="8">
         <v>1.5</v>
@@ -18698,7 +18701,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="8">
         <v>2</v>
@@ -18725,16 +18728,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D40" s="2">
         <v>-1.5</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F40" s="2">
         <v>-1</v>
@@ -18746,7 +18749,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -18773,16 +18776,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D42" s="2">
         <v>-2.5</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F42" s="2">
         <v>-2</v>
@@ -18794,7 +18797,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
@@ -18866,19 +18869,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D46" s="2">
         <v>-3</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F46" s="2">
         <v>-3</v>
@@ -18890,19 +18893,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2">
         <v>-2</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F47" s="2">
         <v>-2</v>
@@ -18917,16 +18920,16 @@
         <v>52</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F48" s="2">
         <v>-1</v>
@@ -18938,7 +18941,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49" s="8">
         <v>0</v>
@@ -18986,19 +18989,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D51" s="2">
         <v>-3</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F51" s="2">
         <v>-3</v>
@@ -19010,7 +19013,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" s="8">
         <v>1</v>
@@ -19037,16 +19040,16 @@
         <v>46</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D53" s="2">
         <v>-1.5</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F53" s="2">
         <v>-1</v>
@@ -19058,7 +19061,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="8">
         <v>3</v>
@@ -19082,7 +19085,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="8">
         <v>1.5</v>
@@ -19133,16 +19136,16 @@
         <v>22</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D57" s="2">
         <v>-1.5</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F57" s="2">
         <v>-1</v>
@@ -19154,7 +19157,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="8">
         <v>2</v>
@@ -19229,16 +19232,16 @@
         <v>33</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D61" s="2">
         <v>-1.5</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F61" s="2">
         <v>-1</v>
@@ -19250,7 +19253,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" s="8">
         <v>2.5</v>
@@ -19304,32 +19307,32 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2">
         <v>1.5</v>
@@ -19353,7 +19356,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -19425,7 +19428,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2">
         <v>-1.5</v>
@@ -19473,7 +19476,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -19497,7 +19500,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2">
         <v>1.5</v>
@@ -19521,7 +19524,7 @@
     </row>
     <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -19545,7 +19548,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2">
         <v>2.5</v>
@@ -19593,7 +19596,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2">
         <v>2.5</v>
@@ -19617,7 +19620,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -19665,7 +19668,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -19689,7 +19692,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2">
         <v>-1</v>
@@ -19737,7 +19740,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2">
         <v>1.5</v>
@@ -19761,7 +19764,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -19785,7 +19788,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -19833,7 +19836,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
@@ -19857,7 +19860,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2">
         <v>1.5</v>
@@ -19881,7 +19884,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -19953,7 +19956,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2">
         <v>-3</v>
@@ -19977,7 +19980,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2">
         <v>-2</v>
@@ -20001,7 +20004,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2">
         <v>-2.5</v>
@@ -20025,7 +20028,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2">
         <v>-1.5</v>
@@ -20097,7 +20100,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2">
         <v>-1</v>
@@ -20145,7 +20148,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" s="2">
         <v>2.5</v>
@@ -20169,7 +20172,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -20217,7 +20220,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -20265,7 +20268,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2">
         <v>0.5</v>
@@ -20337,7 +20340,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="2">
         <v>-3</v>
@@ -20361,7 +20364,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B46" s="2">
         <v>-2</v>
@@ -20409,7 +20412,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -20457,7 +20460,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B50" s="2">
         <v>-3</v>
@@ -20481,7 +20484,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51" s="2">
         <v>1.5</v>
@@ -20529,7 +20532,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2">
         <v>3</v>
@@ -20553,7 +20556,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -20625,7 +20628,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
@@ -20721,7 +20724,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" s="2">
         <v>2.5</v>

--- a/occupations.xlsx
+++ b/occupations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E147C2D-36B2-4A22-A7DB-1C4F0C826410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E061B83-724F-40A0-9D59-98A737A746C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7230" yWindow="-16297" windowWidth="28995" windowHeight="15675" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" ca="1" si="0">RAND()</f>
-        <v>0.4472396074180488</v>
+        <v>0.94935001201404356</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17251660096474775</v>
+        <v>0.62745791097783898</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37911996632555545</v>
+        <v>0.78719120984237667</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35212548268218813</v>
+        <v>0.97631270464103126</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75650774207180538</v>
+        <v>0.52436580589309767</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27401687829665522</v>
+        <v>0.88755872648112333</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70252044203778352</v>
+        <v>0.11657506966034914</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7071846567712221E-2</v>
+        <v>0.69481405975235955</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52791185916891348</v>
+        <v>0.27195230672140147</v>
       </c>
       <c r="D10" t="s">
         <v>83</v>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64510943257872411</v>
+        <v>0.59931907223945025</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62153068678801249</v>
+        <v>0.93375569696052996</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0479719960745415E-2</v>
+        <v>0.95749944754296945</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88963777832667446</v>
+        <v>0.34122213171554117</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65554402698924741</v>
+        <v>0.97770039180966195</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56989842190432694</v>
+        <v>0.98318045450153824</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41709176567342143</v>
+        <v>0.27799829087150973</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65505998985695568</v>
+        <v>0.22409887664926686</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80269463863064694</v>
+        <v>0.50182986022648357</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55249279832729925</v>
+        <v>0.67828368691861274</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23611360101997902</v>
+        <v>0.63992634672040749</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68643817490106707</v>
+        <v>0.45848388522164896</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7065659468841694</v>
+        <v>0.72888106836340816</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82609432855074416</v>
+        <v>0.28930159463500071</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79123275148923644</v>
+        <v>0.4583007123038666</v>
       </c>
       <c r="D25" t="s">
         <v>70</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43766512665580215</v>
+        <v>0.58612995543401103</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1517908466435387</v>
+        <v>0.40804600531455659</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93873173713721347</v>
+        <v>0.44329691611562483</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5406076026100139E-2</v>
+        <v>4.9669730514758537E-2</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14561281953058136</v>
+        <v>0.59604493118796631</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0561881505873401E-2</v>
+        <v>0.86901990137336427</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62335947589067287</v>
+        <v>0.63255438586008761</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43749726708948744</v>
+        <v>9.8528835254436675E-3</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C60" ca="1" si="1">RAND()</f>
-        <v>0.26182066227266354</v>
+        <v>0.6346155972491041</v>
       </c>
       <c r="D34" t="s">
         <v>162</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74215186886743378</v>
+        <v>0.39020388546482776</v>
       </c>
       <c r="D35" t="s">
         <v>97</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17077201272587084</v>
+        <v>0.2357032691667682</v>
       </c>
       <c r="D36" t="s">
         <v>100</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12303208166575474</v>
+        <v>2.8080491044521594E-2</v>
       </c>
       <c r="D37" t="s">
         <v>102</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2319048528489821</v>
+        <v>0.95811433214515862</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74288523024580466</v>
+        <v>0.59696448216088982</v>
       </c>
       <c r="D39" t="s">
         <v>107</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.53205532974382E-2</v>
+        <v>0.94575876937593506</v>
       </c>
       <c r="D40" t="s">
         <v>110</v>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70671947156756165</v>
+        <v>0.39512904485357403</v>
       </c>
       <c r="D41" t="s">
         <v>113</v>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84775071973478255</v>
+        <v>0.39320878253738856</v>
       </c>
       <c r="D42" t="s">
         <v>116</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52437464834939995</v>
+        <v>0.51580796857641187</v>
       </c>
       <c r="D43" t="s">
         <v>119</v>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47547889047598713</v>
+        <v>0.72588820610870242</v>
       </c>
       <c r="D44" t="s">
         <v>164</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="C45" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45875628424497183</v>
+        <v>0.33624672271822886</v>
       </c>
       <c r="D45" t="s">
         <v>124</v>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92699259209529095</v>
+        <v>0.8337521821360161</v>
       </c>
       <c r="D46" t="s">
         <v>127</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50025094082117849</v>
+        <v>0.32697386561760711</v>
       </c>
       <c r="D47" t="s">
         <v>130</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85708891766760165</v>
+        <v>0.9764745407249501</v>
       </c>
       <c r="D48" t="s">
         <v>133</v>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10336925544201725</v>
+        <v>0.6559686995413071</v>
       </c>
       <c r="D49" t="s">
         <v>136</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83719890716946388</v>
+        <v>0.60318524700286913</v>
       </c>
       <c r="D50" t="s">
         <v>139</v>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13543849135607011</v>
+        <v>0.67624149215058083</v>
       </c>
       <c r="D51" t="s">
         <v>156</v>
@@ -3810,7 +3810,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52654585512024232</v>
+        <v>0.20951623508166028</v>
       </c>
       <c r="D52" t="s">
         <v>144</v>
@@ -3857,7 +3857,7 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53438286003411584</v>
+        <v>0.61634571675659477</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>158</v>
@@ -3904,7 +3904,7 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52912159891597699</v>
+        <v>0.83738765642543067</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>159</v>
@@ -3951,7 +3951,7 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18888435295014006</v>
+        <v>0.87870574808524105</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>160</v>
@@ -3998,7 +3998,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38967974026468544</v>
+        <v>0.28765913355344275</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>166</v>
@@ -4045,7 +4045,7 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49380845178326338</v>
+        <v>0.56262342694816936</v>
       </c>
       <c r="D57" t="s">
         <v>147</v>
@@ -4092,7 +4092,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3588345111589416</v>
+        <v>0.64199657053136183</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>161</v>
@@ -4139,7 +4139,7 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90012811520245861</v>
+        <v>0.47646271825074804</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>167</v>
@@ -4186,7 +4186,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45641169686427174</v>
+        <v>0.87450532535495351</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>

--- a/occupations.xlsx
+++ b/occupations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161A3039-95FC-42CA-A323-59DECEFDF6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5EA71F-3333-4725-AD98-3B8E327B95C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-5303" windowWidth="28995" windowHeight="15676" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="212">
   <si>
     <t>#</t>
   </si>
@@ -645,9 +645,6 @@
     <t>#_hu</t>
   </si>
   <si>
-    <t>waiter; server</t>
-  </si>
-  <si>
     <t>item_hu</t>
   </si>
   <si>
@@ -661,6 +658,27 @@
   </si>
   <si>
     <t>out</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>nurse (sister)</t>
+  </si>
+  <si>
+    <t>flight attendant (2)</t>
+  </si>
+  <si>
+    <t>护士 (2)</t>
+  </si>
+  <si>
+    <t>服务员 (2)</t>
+  </si>
+  <si>
+    <t>légiutas-kísérő (2)</t>
+  </si>
+  <si>
+    <t>waiter</t>
   </si>
 </sst>
 </file>
@@ -710,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -725,214 +743,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1009,6 +824,74 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1034,42 +917,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB3D051F-1FFE-44D1-9748-CA7AD3145512}" name="Table2" displayName="Table2" ref="A1:AB60" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB3D051F-1FFE-44D1-9748-CA7AD3145512}" name="Table2" displayName="Table2" ref="A1:AB60" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:AB60" xr:uid="{EB3D051F-1FFE-44D1-9748-CA7AD3145512}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB60">
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{251A4E38-76BB-451A-BA7D-3427A9C0D56D}" name="#_hu" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{6B32F176-CF68-44D0-87E3-68F21AE081E4}" name="#_zh" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{A874A889-7532-45D4-B042-5A57A6832C05}" name="r" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{251A4E38-76BB-451A-BA7D-3427A9C0D56D}" name="#_hu" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{6B32F176-CF68-44D0-87E3-68F21AE081E4}" name="#_zh" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{A874A889-7532-45D4-B042-5A57A6832C05}" name="r" dataDxfId="26">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A494C8E6-F914-428C-8272-43E167056E6E}" name="en" dataDxfId="7"/>
-    <tableColumn id="29" xr3:uid="{919903A9-489F-4E4F-ADD1-D9FE34CBD814}" name="hu" dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{A7971DCE-3EEE-4AC4-B952-2B4AC52EB4E5}" name="item_hu" dataDxfId="5"/>
-    <tableColumn id="31" xr3:uid="{9ED8DFFE-0B05-4EB4-8905-544B1AEC595A}" name="zh" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1B4C41A2-3CB1-4152-B81F-485D7760D63F}" name="item_zh" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{D5BAA5F6-6A6C-4A62-87E9-103082EBCD62}" name="lechat_hu" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{759290F1-F27B-4ACB-8412-511B2D39315D}" name="lechat_hu_std" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{4A32F8C1-359D-4C9E-8195-02A92870A71F}" name="copilot_hu" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{FAED1BDE-D712-4736-B7E1-9432AA7B56C5}" name="copilot_hu_std" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{5D26EFD2-BF07-4806-8FBB-9F219CC0741B}" name="chatgpt_hu" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{A5A18E72-2DF3-4103-ABBE-8E8734EA738F}" name="chatgpt_hu_std" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{F1FF7BC1-AC09-41A0-800C-522EDB48326B}" name="deepseek_hu" dataDxfId="36"/>
-    <tableColumn id="19" xr3:uid="{793655E4-E741-4893-982C-6F8D70FC4888}" name="deepseek_hu_std" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{F30252C1-B7F3-463E-8FA4-511299C5F348}" name="gemini_hu" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{E88D4172-7B47-4387-A704-62B6A3AF195F}" name="gemini_hu_std" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{13C47BE2-8249-4469-A639-66EC0E40FD3E}" name="lechat_zh" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{0AA50B4C-75C2-49C4-B969-6A8E636B807E}" name="lechat_zh_std" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{18983B9A-B075-414F-8D87-3F5A25C293D4}" name="copilot_zh" dataDxfId="30"/>
-    <tableColumn id="25" xr3:uid="{123F14B8-5B61-4C77-88B9-777EBB7C5B66}" name="copilot_zh_std" dataDxfId="29"/>
-    <tableColumn id="18" xr3:uid="{9ABFFE5E-A61F-4A56-9BD3-5CB3EAEDAC22}" name="chatgpt_zh" dataDxfId="28"/>
-    <tableColumn id="26" xr3:uid="{BCA942D6-2851-4C1D-A977-396C0CAD2878}" name="chatgpt_zh_std" dataDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{A39B0E6C-C60A-405D-9049-F1F4B921C73F}" name="deepseek_zh" dataDxfId="26"/>
-    <tableColumn id="27" xr3:uid="{01166CB3-78C0-4F10-83EF-CE4646B82547}" name="deepseek_zh_std" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{09D3EAFF-C9B4-4CCD-803F-7FC1828A805E}" name="gemini_zh" dataDxfId="24"/>
-    <tableColumn id="28" xr3:uid="{540117C0-7A45-4A5D-8D55-14A76C85A71A}" name="gemini_zh_std" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A494C8E6-F914-428C-8272-43E167056E6E}" name="en" dataDxfId="25"/>
+    <tableColumn id="29" xr3:uid="{919903A9-489F-4E4F-ADD1-D9FE34CBD814}" name="hu" dataDxfId="24"/>
+    <tableColumn id="30" xr3:uid="{A7971DCE-3EEE-4AC4-B952-2B4AC52EB4E5}" name="item_hu" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{9ED8DFFE-0B05-4EB4-8905-544B1AEC595A}" name="zh" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{1B4C41A2-3CB1-4152-B81F-485D7760D63F}" name="item_zh" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{D5BAA5F6-6A6C-4A62-87E9-103082EBCD62}" name="lechat_hu" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{759290F1-F27B-4ACB-8412-511B2D39315D}" name="lechat_hu_std" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{4A32F8C1-359D-4C9E-8195-02A92870A71F}" name="copilot_hu" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{FAED1BDE-D712-4736-B7E1-9432AA7B56C5}" name="copilot_hu_std" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{5D26EFD2-BF07-4806-8FBB-9F219CC0741B}" name="chatgpt_hu" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{A5A18E72-2DF3-4103-ABBE-8E8734EA738F}" name="chatgpt_hu_std" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{F1FF7BC1-AC09-41A0-800C-522EDB48326B}" name="deepseek_hu" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{793655E4-E741-4893-982C-6F8D70FC4888}" name="deepseek_hu_std" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{F30252C1-B7F3-463E-8FA4-511299C5F348}" name="gemini_hu" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{E88D4172-7B47-4387-A704-62B6A3AF195F}" name="gemini_hu_std" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{13C47BE2-8249-4469-A639-66EC0E40FD3E}" name="lechat_zh" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{0AA50B4C-75C2-49C4-B969-6A8E636B807E}" name="lechat_zh_std" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{18983B9A-B075-414F-8D87-3F5A25C293D4}" name="copilot_zh" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{123F14B8-5B61-4C77-88B9-777EBB7C5B66}" name="copilot_zh_std" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{9ABFFE5E-A61F-4A56-9BD3-5CB3EAEDAC22}" name="chatgpt_zh" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{BCA942D6-2851-4C1D-A977-396C0CAD2878}" name="chatgpt_zh_std" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{A39B0E6C-C60A-405D-9049-F1F4B921C73F}" name="deepseek_zh" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{01166CB3-78C0-4F10-83EF-CE4646B82547}" name="deepseek_zh_std" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{09D3EAFF-C9B4-4CCD-803F-7FC1828A805E}" name="gemini_zh" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{540117C0-7A45-4A5D-8D55-14A76C85A71A}" name="gemini_zh_std" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1400,7 +1283,7 @@
   <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1408,13 +1291,13 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.9140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.4140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.4140625" customWidth="1"/>
@@ -1446,25 +1329,25 @@
       <c r="C1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>189</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1531,27 +1414,27 @@
       </c>
       <c r="C2" s="4">
         <f t="shared" ref="C2:C33" ca="1" si="0">RAND()</f>
-        <v>0.51324327078954668</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>0.6647460686013329</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="4">
         <v>0.78173595997057166</v>
       </c>
       <c r="K2" s="4">
@@ -1620,27 +1503,27 @@
       </c>
       <c r="C3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82375214914295147</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>0.12143022140909543</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="4">
         <v>-2.7</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="4">
         <v>0.3496029493900496</v>
       </c>
       <c r="K3" s="4">
@@ -1709,27 +1592,27 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84273497448919743</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>0.90558744469792296</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="H4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="4">
         <v>-1.5</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="4">
         <v>0.94280904158206336</v>
       </c>
       <c r="K4" s="4">
@@ -1798,27 +1681,27 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8243663142266825</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>0.79349967231498286</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="4">
         <v>-1.6</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="4">
         <v>0.45946829173634052</v>
       </c>
       <c r="K5" s="4">
@@ -1887,27 +1770,27 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66902886095327851</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>0.99396899007216499</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="4">
         <v>-1</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="4">
         <v>0.40824829046386302</v>
       </c>
       <c r="K6" s="4">
@@ -1976,27 +1859,27 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88785422615185927</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="s">
+        <v>0.71604861100286221</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="I7" s="4">
         <v>2.9</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="4">
         <v>0.21081851067789192</v>
       </c>
       <c r="K7" s="4">
@@ -2065,27 +1948,27 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11498755601659172</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>0.45763677363530986</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="4">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="4">
         <v>0.36893239368631092</v>
       </c>
       <c r="K8" s="4">
@@ -2154,27 +2037,27 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15927488150248215</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>0.72658269967042222</v>
+      </c>
+      <c r="D9" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="4">
         <v>2.6</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="4">
         <v>0.51639777949432286</v>
       </c>
       <c r="K9" s="4">
@@ -2243,27 +2126,27 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37476469993405748</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>0.93416323498850451</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="I10" s="4">
         <v>0.45</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="4">
         <v>0.49721446300587663</v>
       </c>
       <c r="K10" s="4">
@@ -2332,27 +2215,27 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75445107810039302</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>8.5119786063442837E-2</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.35</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="4">
         <v>0.62583277851728625</v>
       </c>
       <c r="K11" s="4">
@@ -2421,27 +2304,27 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66143095929392259</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>0.19928348198967338</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="4">
         <v>-0.9</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="4">
         <v>0.51639777949432231</v>
       </c>
       <c r="K12" s="4">
@@ -2510,27 +2393,27 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64825262535142769</v>
-      </c>
-      <c r="D13" s="7" t="s">
+        <v>0.9401520800380051</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="4">
         <v>-1.4</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="4">
         <v>0.56764621219754663</v>
       </c>
       <c r="K13" s="4">
@@ -2599,27 +2482,27 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8396696225149699</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>0.40579151855924378</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="4">
         <v>-0.85</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="4">
         <v>0.52967495273569021</v>
       </c>
       <c r="K14" s="4">
@@ -2688,27 +2571,27 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25826333813330782</v>
-      </c>
-      <c r="D15" s="7" t="s">
+        <v>0.77467257117859889</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="H15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="4">
         <v>1.25</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="4">
         <v>1.1606990230986767</v>
       </c>
       <c r="K15" s="4">
@@ -2777,27 +2660,27 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30967570879964479</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>0.39528264522854506</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="4">
         <v>1.35</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="4">
         <v>0.91439111495634673</v>
       </c>
       <c r="K16" s="4">
@@ -2866,27 +2749,27 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82308341788350181</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>0.86100796748871544</v>
+      </c>
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="H17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" s="4">
         <v>-0.85</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="4">
         <v>0.66874675492462932</v>
       </c>
       <c r="K17" s="4">
@@ -2955,27 +2838,27 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6981100964624567</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>0.21353073291529323</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="H18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" s="4">
         <v>-2.25</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="4">
         <v>0.58925565098878963</v>
       </c>
       <c r="K18" s="4">
@@ -3044,27 +2927,27 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95278551904050657</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>0.33973304617137856</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="H19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="4">
         <v>-1.9</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="4">
         <v>0.31622776601683766</v>
       </c>
       <c r="K19" s="4">
@@ -3133,27 +3016,27 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90868686718428282</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>0.20418714440545682</v>
+      </c>
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="H20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="4">
         <v>2.9</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="4">
         <v>0.21081851067789192</v>
       </c>
       <c r="K20" s="4">
@@ -3222,27 +3105,27 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19901351198784722</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>0.4086952127202137</v>
+      </c>
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="H21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" s="4">
         <v>0.25</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="4">
         <v>0.42491829279939874</v>
       </c>
       <c r="K21" s="4">
@@ -3311,27 +3194,27 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91550115789946873</v>
-      </c>
-      <c r="D22" s="7" t="s">
+        <v>6.6222288811093932E-2</v>
+      </c>
+      <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="H22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" s="4">
         <v>-2.7</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="4">
         <v>0.3496029493900496</v>
       </c>
       <c r="K22" s="4">
@@ -3400,27 +3283,27 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7237280397097883E-2</v>
-      </c>
-      <c r="D23" s="7" t="s">
+        <v>0.55487729158318733</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" s="4">
         <v>-1.9</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="4">
         <v>0.39440531887330754</v>
       </c>
       <c r="K23" s="4">
@@ -3489,27 +3372,27 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94702345263243937</v>
-      </c>
-      <c r="D24" s="7" t="s">
+        <v>0.8443275564807845</v>
+      </c>
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="H24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="4">
         <v>2.85</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="4">
         <v>0.33747427885527737</v>
       </c>
       <c r="K24" s="4">
@@ -3578,27 +3461,27 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9280300818841032E-2</v>
-      </c>
-      <c r="D25" s="7" t="s">
+        <v>0.39036998471642859</v>
+      </c>
+      <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="H25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="4">
         <v>-0.7</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="4">
         <v>0.58689389538863357</v>
       </c>
       <c r="K25" s="4">
@@ -3667,27 +3550,27 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73012608262252443</v>
-      </c>
-      <c r="D26" s="7" t="s">
+        <v>0.71775292648567279</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="H26" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="4">
         <v>0.61463629715285917</v>
       </c>
       <c r="K26" s="4">
@@ -3756,27 +3639,27 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96177321097586821</v>
-      </c>
-      <c r="D27" s="7" t="s">
+        <v>9.6695017717825738E-2</v>
+      </c>
+      <c r="D27" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I27" s="4">
         <v>1.55</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="4">
         <v>0.55025246730730604</v>
       </c>
       <c r="K27" s="4">
@@ -3845,27 +3728,27 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1018689612111441E-2</v>
-      </c>
-      <c r="D28" s="7" t="s">
+        <v>0.53158458674702969</v>
+      </c>
+      <c r="D28" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="H28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" s="4">
         <v>1.7</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="4">
         <v>0.58689389538863379</v>
       </c>
       <c r="K28" s="4">
@@ -3934,27 +3817,27 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70448848016349808</v>
-      </c>
-      <c r="D29" s="7" t="s">
+        <v>0.698783192787226</v>
+      </c>
+      <c r="D29" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="H29" t="s">
+        <v>203</v>
+      </c>
+      <c r="I29" s="4">
         <v>1.9</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="4">
         <v>0.39440531887330754</v>
       </c>
       <c r="K29" s="4">
@@ -4023,27 +3906,27 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18104165492859814</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="7" t="s">
+        <v>0.63383994955115397</v>
+      </c>
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="H30" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30" s="4">
         <v>-1.05</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="4">
         <v>0.49721446300587657</v>
       </c>
       <c r="K30" s="4">
@@ -4112,27 +3995,27 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20276943104877554</v>
-      </c>
-      <c r="D31" s="7" t="s">
+        <v>0.11137184210403805</v>
+      </c>
+      <c r="D31" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="H31" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="4">
         <v>2.9</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="4">
         <v>0.21081851067789192</v>
       </c>
       <c r="K31" s="4">
@@ -4201,27 +4084,27 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25526574422242398</v>
-      </c>
-      <c r="D32" s="7" t="s">
+        <v>0.33311899388800559</v>
+      </c>
+      <c r="D32" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I32" s="8">
+      <c r="H32" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="4">
         <v>-0.6</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="4">
         <v>0.45946829173634074</v>
       </c>
       <c r="K32" s="4">
@@ -4290,27 +4173,27 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14096210381433716</v>
-      </c>
-      <c r="D33" s="7" t="s">
+        <v>0.39660935614036275</v>
+      </c>
+      <c r="D33" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="H33" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="4">
         <v>1</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="4">
         <v>0.70710678118654757</v>
       </c>
       <c r="K33" s="4">
@@ -4379,27 +4262,27 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" ref="C34:C60" ca="1" si="1">RAND()</f>
-        <v>0.87143769426499551</v>
-      </c>
-      <c r="D34" s="7" t="s">
+        <v>0.72804778716100504</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="H34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" s="4">
         <v>-2.1</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="4">
         <v>0.51639777949432208</v>
       </c>
       <c r="K34" s="4">
@@ -4468,27 +4351,27 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24469145480421139</v>
-      </c>
-      <c r="D35" s="7" t="s">
+        <v>0.38568674684878801</v>
+      </c>
+      <c r="D35" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="H35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="4">
         <v>2.95</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="4">
         <v>0.15811388300841894</v>
       </c>
       <c r="K35" s="4">
@@ -4557,27 +4440,27 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44382554074247316</v>
-      </c>
-      <c r="D36" s="7" t="s">
+        <v>0.99714581442045491</v>
+      </c>
+      <c r="D36" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="H36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" s="4">
         <v>2</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="4">
         <v>0.47140452079103168</v>
       </c>
       <c r="K36" s="4">
@@ -4646,27 +4529,27 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22338770076118897</v>
-      </c>
-      <c r="D37" s="7" t="s">
+        <v>0.22441137610170048</v>
+      </c>
+      <c r="D37" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="F37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="H37" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="4">
         <v>0.85</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="4">
         <v>0.88349055204657145</v>
       </c>
       <c r="K37" s="4">
@@ -4735,27 +4618,27 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31544922438983791</v>
-      </c>
-      <c r="D38" s="7" t="s">
+        <v>0.31727796570310107</v>
+      </c>
+      <c r="D38" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="F38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="H38" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="4">
         <v>-1.25</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="4">
         <v>0.54006172486732174</v>
       </c>
       <c r="K38" s="4">
@@ -4824,27 +4707,27 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54964301191392528</v>
-      </c>
-      <c r="D39" s="7" t="s">
+        <v>0.69941170873600056</v>
+      </c>
+      <c r="D39" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" t="s">
         <v>103</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="H39" t="s">
+        <v>203</v>
+      </c>
+      <c r="I39" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="4">
         <v>1.165475582469806</v>
       </c>
       <c r="K39" s="4">
@@ -4913,27 +4796,27 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77801586889651819</v>
-      </c>
-      <c r="D40" s="7" t="s">
+        <v>0.82146720795721695</v>
+      </c>
+      <c r="D40" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" t="s">
         <v>204</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I40" s="8">
+      <c r="I40" s="4">
         <v>1.35</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="4">
         <v>0.41163630117428213</v>
       </c>
       <c r="K40" s="4">
@@ -5002,27 +4885,27 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3006883853851301E-2</v>
-      </c>
-      <c r="D41" s="7" t="s">
+        <v>0.87812498712094544</v>
+      </c>
+      <c r="D41" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="F41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" t="s">
         <v>109</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I41" s="8">
+      <c r="H41" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" s="4">
         <v>1.7</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="4">
         <v>0.48304589153964811</v>
       </c>
       <c r="K41" s="4">
@@ -5091,27 +4974,27 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72302343159461602</v>
-      </c>
-      <c r="D42" s="7" t="s">
+        <v>0.46296487450751844</v>
+      </c>
+      <c r="D42" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="F42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I42" s="8">
+      <c r="H42" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="4">
         <v>0.35</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="4">
         <v>0.47434164902525688</v>
       </c>
       <c r="K42" s="4">
@@ -5180,27 +5063,27 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33320023767587226</v>
-      </c>
-      <c r="D43" s="7" t="s">
+        <v>0.62271696611694083</v>
+      </c>
+      <c r="D43" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="F43" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" t="s">
         <v>115</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="H43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="4">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="4">
         <v>0.43779751788545673</v>
       </c>
       <c r="K43" s="4">
@@ -5269,27 +5152,27 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49579386422098992</v>
-      </c>
-      <c r="D44" s="7" t="s">
+        <v>0.77439848425489732</v>
+      </c>
+      <c r="D44" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="F44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I44" s="8">
+      <c r="H44" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="4">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="4">
         <v>0.43779751788545673</v>
       </c>
       <c r="K44" s="4">
@@ -5358,27 +5241,27 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48853491676538974</v>
-      </c>
-      <c r="D45" s="7" t="s">
+        <v>0.54413865411216855</v>
+      </c>
+      <c r="D45" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" t="s">
         <v>122</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="F45" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" t="s">
         <v>120</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="H45" t="s">
+        <v>204</v>
+      </c>
+      <c r="I45" s="4">
         <v>2.95</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="4">
         <v>0.15811388300841894</v>
       </c>
       <c r="K45" s="4">
@@ -5447,27 +5330,27 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93637887905817552</v>
-      </c>
-      <c r="D46" s="7" t="s">
+        <v>0.92031778758579985</v>
+      </c>
+      <c r="D46" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="F46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" t="s">
         <v>123</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="H46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="4">
         <v>1.65</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="4">
         <v>0.47434164902525672</v>
       </c>
       <c r="K46" s="4">
@@ -5536,27 +5419,27 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48755494377896447</v>
-      </c>
-      <c r="D47" s="7" t="s">
+        <v>0.3243966160750309</v>
+      </c>
+      <c r="D47" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="7" t="s">
+      <c r="F47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I47" s="8">
+      <c r="H47" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="4">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="4">
         <v>0.59860949986893253</v>
       </c>
       <c r="K47" s="4">
@@ -5625,27 +5508,27 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85814127663066364</v>
-      </c>
-      <c r="D48" s="7" t="s">
+        <v>5.4087245709016685E-2</v>
+      </c>
+      <c r="D48" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" t="s">
         <v>129</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I48" s="8">
+      <c r="H48" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="4">
         <v>-1.35</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="4">
         <v>0.47434164902525672</v>
       </c>
       <c r="K48" s="4">
@@ -5714,27 +5597,27 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24628999919675165</v>
-      </c>
-      <c r="D49" s="7" t="s">
+        <v>0.31305623797835747</v>
+      </c>
+      <c r="D49" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="F49" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I49" s="8">
+      <c r="H49" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="4">
         <v>2.65</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="4">
         <v>0.33747427885527737</v>
       </c>
       <c r="K49" s="4">
@@ -5803,27 +5686,27 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66664093802780455</v>
-      </c>
-      <c r="D50" s="7" t="s">
+        <v>0.39374611935249137</v>
+      </c>
+      <c r="D50" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="F50" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I50" s="8">
+      <c r="H50" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="4">
         <v>-1.9</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="4">
         <v>0.31622776601683766</v>
       </c>
       <c r="K50" s="4">
@@ -5892,27 +5775,27 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56375018322143</v>
-      </c>
-      <c r="D51" s="7" t="s">
+        <v>0.1291276553172902</v>
+      </c>
+      <c r="D51" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="F51" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" t="s">
         <v>149</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="H51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
         <v>0</v>
       </c>
       <c r="K51" s="4">
@@ -5981,27 +5864,27 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17970599568499102</v>
-      </c>
-      <c r="D52" s="7" t="s">
+        <v>0.35827719090681864</v>
+      </c>
+      <c r="D52" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="F52" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" t="s">
         <v>140</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I52" s="8">
+      <c r="H52" t="s">
+        <v>203</v>
+      </c>
+      <c r="I52" s="4">
         <v>2.8</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="4">
         <v>0.2581988897471611</v>
       </c>
       <c r="K52" s="4">
@@ -6070,27 +5953,27 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17364167351647719</v>
-      </c>
-      <c r="D53" s="7" t="s">
+        <v>0.68925811350982336</v>
+      </c>
+      <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="F53" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" t="s">
         <v>141</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I53" s="8">
+      <c r="H53" t="s">
+        <v>203</v>
+      </c>
+      <c r="I53" s="4">
         <v>2.75</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="4">
         <v>0.26352313834736496</v>
       </c>
       <c r="K53" s="4">
@@ -6159,27 +6042,27 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49520617944409218</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54" s="7" t="s">
+        <v>0.75801336969041933</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I54" s="8">
+      <c r="H54" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54" s="4">
         <v>1.95</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="4">
         <v>0.43779751788545673</v>
       </c>
       <c r="K54" s="4">
@@ -6248,27 +6131,27 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7197914579325555</v>
-      </c>
-      <c r="D55" s="7" t="s">
+        <v>0.3255032423145624</v>
+      </c>
+      <c r="D55" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="F55" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" t="s">
         <v>151</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I55" s="8">
-        <v>3</v>
-      </c>
-      <c r="J55" s="8">
+      <c r="H55" t="s">
+        <v>202</v>
+      </c>
+      <c r="I55" s="4">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4">
         <v>0</v>
       </c>
       <c r="K55" s="4">
@@ -6337,27 +6220,27 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88117746351003301</v>
-      </c>
-      <c r="D56" s="7" t="s">
+        <v>0.62002699513128678</v>
+      </c>
+      <c r="D56" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" t="s">
         <v>166</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="F56" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" t="s">
         <v>154</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I56" s="8">
-        <v>-3</v>
-      </c>
-      <c r="J56" s="8">
+      <c r="H56" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="4">
+        <v>-3</v>
+      </c>
+      <c r="J56" s="4">
         <v>0</v>
       </c>
       <c r="K56" s="4">
@@ -6426,27 +6309,27 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.856569972141068</v>
-      </c>
-      <c r="D57" s="7" t="s">
+        <v>0.89043083657838817</v>
+      </c>
+      <c r="D57" t="s">
         <v>184</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" t="s">
         <v>178</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="F57" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" t="s">
         <v>152</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I57" s="8">
-        <v>3</v>
-      </c>
-      <c r="J57" s="8">
+      <c r="H57" t="s">
+        <v>202</v>
+      </c>
+      <c r="I57" s="4">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4">
         <v>0</v>
       </c>
       <c r="K57" s="4">
@@ -6515,27 +6398,27 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74476149092084387</v>
-      </c>
-      <c r="D58" s="7" t="s">
+        <v>0.70684171584662092</v>
+      </c>
+      <c r="D58" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" t="s">
         <v>180</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="F58" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" t="s">
         <v>159</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I58" s="8">
-        <v>-3</v>
-      </c>
-      <c r="J58" s="8">
+      <c r="H58" t="s">
+        <v>202</v>
+      </c>
+      <c r="I58" s="4">
+        <v>-3</v>
+      </c>
+      <c r="J58" s="4">
         <v>0</v>
       </c>
       <c r="K58" s="4">
@@ -6604,27 +6487,27 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61197016751569266</v>
-      </c>
-      <c r="D59" s="7" t="s">
+        <v>9.0865263582491806E-2</v>
+      </c>
+      <c r="D59" t="s">
         <v>183</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" t="s">
         <v>179</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="F59" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" t="s">
         <v>153</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I59" s="8">
-        <v>3</v>
-      </c>
-      <c r="J59" s="8">
+      <c r="H59" t="s">
+        <v>202</v>
+      </c>
+      <c r="I59" s="4">
+        <v>3</v>
+      </c>
+      <c r="J59" s="4">
         <v>0</v>
       </c>
       <c r="K59" s="4">
@@ -6693,27 +6576,27 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43974040343580523</v>
-      </c>
-      <c r="D60" s="7" t="s">
+        <v>0.32744924826895472</v>
+      </c>
+      <c r="D60" t="s">
         <v>182</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="F60" t="s">
+        <v>204</v>
+      </c>
+      <c r="G60" t="s">
         <v>160</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I60" s="8">
-        <v>-3</v>
-      </c>
-      <c r="J60" s="8">
+      <c r="H60" t="s">
+        <v>202</v>
+      </c>
+      <c r="I60" s="4">
+        <v>-3</v>
+      </c>
+      <c r="J60" s="4">
         <v>0</v>
       </c>
       <c r="K60" s="4">
@@ -6775,6 +6658,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D1:E1048576 G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
